--- a/files/segments/segment.xlsx
+++ b/files/segments/segment.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="сегменты" sheetId="2" r:id="rId1"/>
+    <sheet name="сегменты" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" refMode="R1C1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>Поставщик:</t>
   </si>
@@ -757,8 +757,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,98 +790,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E6E9EC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -914,7 +838,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -986,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1126,31 +1050,38 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="22" customWidth="1"/>
+    <col customWidth="true" max="4" min="4" width="17"/>
+    <col customWidth="true" max="3" min="3" width="58"/>
+    <col customWidth="true" max="1" min="1" width="22"/>
+    <col customWidth="true" max="2" min="2" width="22"/>
+    <col customWidth="true" max="5" min="5" width="22"/>
+    <col customWidth="true" max="6" min="6" width="22"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1089,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4"/>
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1098,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6"/>
+    <row r="7">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1107,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1214,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1234,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1254,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1274,7 +1209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1294,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1314,7 +1249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1334,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1354,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1374,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1394,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1414,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1434,7 +1369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1454,7 +1389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1474,7 +1409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1494,7 +1429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1514,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27">
         <v>17</v>
       </c>
@@ -1534,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1554,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29">
         <v>19</v>
       </c>
@@ -1574,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1594,7 +1529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1614,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1634,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33">
         <v>23</v>
       </c>
@@ -1654,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34">
         <v>24</v>
       </c>
@@ -1674,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1694,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36">
         <v>26</v>
       </c>
@@ -1714,7 +1649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1734,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1754,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1774,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40">
         <v>30</v>
       </c>
@@ -1794,7 +1729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41">
         <v>31</v>
       </c>
@@ -1814,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42">
         <v>32</v>
       </c>
@@ -1834,7 +1769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43">
         <v>33</v>
       </c>
@@ -1854,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44">
         <v>34</v>
       </c>
@@ -1874,7 +1809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45">
         <v>35</v>
       </c>
@@ -1894,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46">
         <v>36</v>
       </c>
@@ -1914,7 +1849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47">
         <v>37</v>
       </c>
@@ -1934,7 +1869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48">
         <v>38</v>
       </c>
@@ -1954,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49">
         <v>39</v>
       </c>
@@ -1974,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50">
         <v>40</v>
       </c>
@@ -1994,7 +1929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51">
         <v>41</v>
       </c>
@@ -2014,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52">
         <v>42</v>
       </c>
@@ -2034,7 +1969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53">
         <v>43</v>
       </c>
@@ -2054,7 +1989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54">
         <v>44</v>
       </c>
@@ -2074,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55">
         <v>45</v>
       </c>
@@ -2094,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56">
         <v>46</v>
       </c>
@@ -2114,7 +2049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57">
         <v>47</v>
       </c>
@@ -2134,7 +2069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58">
         <v>48</v>
       </c>
@@ -2154,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59">
         <v>49</v>
       </c>
@@ -2174,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60">
         <v>50</v>
       </c>
@@ -2194,7 +2129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61">
         <v>51</v>
       </c>
@@ -2214,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62">
         <v>52</v>
       </c>
@@ -2234,7 +2169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63">
         <v>53</v>
       </c>
@@ -2254,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64">
         <v>54</v>
       </c>
@@ -2274,7 +2209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65">
         <v>55</v>
       </c>
@@ -2294,7 +2229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66">
         <v>56</v>
       </c>
@@ -2314,7 +2249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67">
         <v>57</v>
       </c>
@@ -2334,7 +2269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68">
         <v>58</v>
       </c>
@@ -2354,7 +2289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69">
         <v>59</v>
       </c>
@@ -2374,7 +2309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70">
         <v>60</v>
       </c>
@@ -2394,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71">
         <v>61</v>
       </c>
@@ -2414,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72">
         <v>62</v>
       </c>
@@ -2434,7 +2369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73">
         <v>63</v>
       </c>
@@ -2454,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74">
         <v>64</v>
       </c>
@@ -2474,7 +2409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75">
         <v>65</v>
       </c>
@@ -2494,7 +2429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76">
         <v>66</v>
       </c>
@@ -2514,7 +2449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77">
         <v>67</v>
       </c>
@@ -2534,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78">
         <v>68</v>
       </c>
@@ -2554,7 +2489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79">
         <v>69</v>
       </c>
@@ -2574,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80">
         <v>70</v>
       </c>
@@ -2594,7 +2529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81">
         <v>71</v>
       </c>
@@ -2614,7 +2549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82">
         <v>72</v>
       </c>
@@ -2634,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83">
         <v>73</v>
       </c>
@@ -2654,7 +2589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84">
         <v>74</v>
       </c>
@@ -2674,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85">
         <v>75</v>
       </c>
@@ -2694,7 +2629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86">
         <v>76</v>
       </c>
@@ -2714,7 +2649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87">
         <v>77</v>
       </c>
@@ -2734,7 +2669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88">
         <v>78</v>
       </c>
@@ -2754,7 +2689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89">
         <v>79</v>
       </c>
@@ -2774,7 +2709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90">
         <v>80</v>
       </c>
@@ -2794,7 +2729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91">
         <v>81</v>
       </c>
@@ -2814,7 +2749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92">
         <v>82</v>
       </c>
@@ -2834,7 +2769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93">
         <v>83</v>
       </c>
@@ -2854,7 +2789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94">
         <v>84</v>
       </c>
@@ -2874,7 +2809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95">
         <v>85</v>
       </c>
@@ -2894,7 +2829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96">
         <v>86</v>
       </c>
@@ -2914,7 +2849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97">
         <v>87</v>
       </c>
@@ -2934,7 +2869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98">
         <v>88</v>
       </c>
@@ -2954,7 +2889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99">
         <v>89</v>
       </c>
@@ -2974,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100">
         <v>90</v>
       </c>
@@ -2994,7 +2929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101">
         <v>91</v>
       </c>
@@ -3014,7 +2949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102">
         <v>92</v>
       </c>
@@ -3034,7 +2969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103">
         <v>93</v>
       </c>
@@ -3054,7 +2989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104">
         <v>94</v>
       </c>
@@ -3074,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105">
         <v>95</v>
       </c>
@@ -3094,7 +3029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106">
         <v>96</v>
       </c>
@@ -3114,7 +3049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107">
         <v>97</v>
       </c>
@@ -3134,7 +3069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108">
         <v>98</v>
       </c>
@@ -3154,7 +3089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109">
         <v>99</v>
       </c>
@@ -3174,7 +3109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110">
         <v>100</v>
       </c>
@@ -3194,7 +3129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111">
         <v>101</v>
       </c>
@@ -3214,7 +3149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112">
         <v>102</v>
       </c>
@@ -3234,7 +3169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113">
         <v>103</v>
       </c>
@@ -3254,7 +3189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114">
         <v>104</v>
       </c>
@@ -3274,7 +3209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115">
         <v>105</v>
       </c>
@@ -3294,7 +3229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116">
         <v>106</v>
       </c>
@@ -3314,7 +3249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117">
         <v>107</v>
       </c>
@@ -3334,7 +3269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118">
         <v>108</v>
       </c>
@@ -3354,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119">
         <v>109</v>
       </c>
@@ -3374,7 +3309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120">
         <v>110</v>
       </c>
@@ -3394,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121">
         <v>111</v>
       </c>
@@ -3414,7 +3349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122">
         <v>112</v>
       </c>
@@ -3434,7 +3369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123">
         <v>113</v>
       </c>
@@ -3454,7 +3389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124">
         <v>114</v>
       </c>
@@ -3474,7 +3409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125">
         <v>115</v>
       </c>
@@ -3494,7 +3429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126">
         <v>116</v>
       </c>
@@ -3515,6 +3450,5 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/segments/segment.xlsx
+++ b/files/segments/segment.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
-  <si>
-    <t>Заказ № (Тестовый заказ) от 01.01.2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+  <si>
+    <t>Заказ № 25 от 01.06.2022</t>
   </si>
   <si>
     <t>Поставщик:</t>
@@ -28,7 +28,7 @@
     <t>Покупатель:</t>
   </si>
   <si>
-    <t>Тестовый покупатель</t>
+    <t/>
   </si>
   <si>
     <t>Договор:</t>
@@ -46,15 +46,9 @@
     <t>Тестовый договор:</t>
   </si>
   <si>
-    <t>Тестовая дата поставки:</t>
-  </si>
-  <si>
     <t>emart  №3 Жайляу Маркет</t>
   </si>
   <si>
-    <t>Тестовый менеджер</t>
-  </si>
-  <si>
     <t>Валюта заказа:</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>шт</t>
   </si>
   <si>
-    <t>тестовый лот</t>
-  </si>
-  <si>
     <t>00000096564</t>
   </si>
   <si>
@@ -811,19 +802,19 @@
     <t>В том числе НДС:</t>
   </si>
   <si>
-    <t>Комментарий: [Новый тестовый] emart  №3 Жайляу Маркет</t>
-  </si>
-  <si>
-    <t>Всего наименований 117, на сумму 1290708.000000 KZT</t>
-  </si>
-  <si>
-    <t>Цифры букваами</t>
+    <t>Комментарий: [Новый тестовый] Автозаказ для ЛС: emart  №3 Жайляу Маркет</t>
+  </si>
+  <si>
+    <t>Всего наименований 116, на сумму 1290708.000000 KZT</t>
+  </si>
+  <si>
+    <t>Цифры буквами</t>
   </si>
   <si>
     <t>Исполнитель:</t>
   </si>
   <si>
-    <t>/Электронный заказ             /</t>
+    <t>/Электронный заказ  /</t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="s">
         <v>13</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" ht="6.8" customHeight="true"/>
@@ -1575,13 +1566,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="s">
         <v>14</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="6.8" customHeight="true"/>
@@ -1590,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="6.8" customHeight="true"/>
@@ -1599,23 +1590,23 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" ht="6.8" customHeight="true"/>
     <row r="14">
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1630,34 +1621,34 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
@@ -1709,13 +1700,13 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1730,10 +1721,10 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W16" s="12">
         <v>2</v>
@@ -1741,7 +1732,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12">
@@ -1757,7 +1748,7 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
@@ -1769,13 +1760,13 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1790,10 +1781,10 @@
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W17" s="12">
         <v>1</v>
@@ -1801,7 +1792,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12">
@@ -1817,7 +1808,7 @@
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
@@ -1829,13 +1820,13 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1850,10 +1841,10 @@
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W18" s="12">
         <v>1</v>
@@ -1861,7 +1852,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12">
@@ -1877,7 +1868,7 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
@@ -1889,13 +1880,13 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1910,10 +1901,10 @@
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W19" s="12">
         <v>3</v>
@@ -1921,7 +1912,7 @@
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12">
@@ -1937,7 +1928,7 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
@@ -1949,13 +1940,13 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1970,10 +1961,10 @@
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W20" s="12">
         <v>1</v>
@@ -1981,7 +1972,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12">
@@ -1997,7 +1988,7 @@
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
@@ -2009,13 +2000,13 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -2030,10 +2021,10 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W21" s="12">
         <v>3</v>
@@ -2041,7 +2032,7 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12">
@@ -2057,7 +2048,7 @@
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
@@ -2069,13 +2060,13 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2090,10 +2081,10 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W22" s="12">
         <v>2</v>
@@ -2101,7 +2092,7 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12">
@@ -2117,7 +2108,7 @@
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -2129,13 +2120,13 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2150,10 +2141,10 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W23" s="12">
         <v>5</v>
@@ -2161,7 +2152,7 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12">
@@ -2177,7 +2168,7 @@
       <c r="AH23" s="12"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
@@ -2189,13 +2180,13 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -2210,10 +2201,10 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W24" s="12">
         <v>1</v>
@@ -2221,7 +2212,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12">
@@ -2237,7 +2228,7 @@
       <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
@@ -2249,13 +2240,13 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -2270,10 +2261,10 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W25" s="12">
         <v>2</v>
@@ -2281,7 +2272,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12">
@@ -2297,7 +2288,7 @@
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
@@ -2309,13 +2300,13 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -2330,10 +2321,10 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W26" s="12">
         <v>18</v>
@@ -2341,7 +2332,7 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12">
@@ -2357,7 +2348,7 @@
       <c r="AH26" s="12"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
@@ -2369,13 +2360,13 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -2390,10 +2381,10 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W27" s="12">
         <v>14</v>
@@ -2401,7 +2392,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12">
@@ -2417,7 +2408,7 @@
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
@@ -2429,13 +2420,13 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -2450,10 +2441,10 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W28" s="12">
         <v>7</v>
@@ -2461,7 +2452,7 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12">
@@ -2477,7 +2468,7 @@
       <c r="AH28" s="12"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
@@ -2489,13 +2480,13 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -2510,10 +2501,10 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W29" s="12">
         <v>5</v>
@@ -2521,7 +2512,7 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12">
@@ -2537,7 +2528,7 @@
       <c r="AH29" s="12"/>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -2549,13 +2540,13 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -2570,10 +2561,10 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W30" s="12">
         <v>14</v>
@@ -2581,7 +2572,7 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12">
@@ -2597,7 +2588,7 @@
       <c r="AH30" s="12"/>
       <c r="AI30" s="12"/>
       <c r="AJ30" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -2609,13 +2600,13 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -2630,10 +2621,10 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W31" s="12">
         <v>3</v>
@@ -2641,7 +2632,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12">
@@ -2657,7 +2648,7 @@
       <c r="AH31" s="12"/>
       <c r="AI31" s="12"/>
       <c r="AJ31" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -2669,13 +2660,13 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2690,10 +2681,10 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W32" s="12">
         <v>18</v>
@@ -2701,7 +2692,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12">
@@ -2717,7 +2708,7 @@
       <c r="AH32" s="12"/>
       <c r="AI32" s="12"/>
       <c r="AJ32" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -2729,13 +2720,13 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2750,10 +2741,10 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W33" s="12">
         <v>18</v>
@@ -2761,7 +2752,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12">
@@ -2777,7 +2768,7 @@
       <c r="AH33" s="12"/>
       <c r="AI33" s="12"/>
       <c r="AJ33" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -2789,13 +2780,13 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -2810,10 +2801,10 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W34" s="12">
         <v>1</v>
@@ -2821,7 +2812,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12">
@@ -2837,7 +2828,7 @@
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
@@ -2849,13 +2840,13 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -2870,10 +2861,10 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W35" s="12">
         <v>2</v>
@@ -2881,7 +2872,7 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12">
@@ -2897,7 +2888,7 @@
       <c r="AH35" s="12"/>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
@@ -2909,13 +2900,13 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -2930,10 +2921,10 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W36" s="12">
         <v>13</v>
@@ -2941,7 +2932,7 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12">
@@ -2957,7 +2948,7 @@
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
       <c r="AJ36" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
@@ -2969,13 +2960,13 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -2990,10 +2981,10 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W37" s="12">
         <v>15</v>
@@ -3001,7 +2992,7 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12">
@@ -3017,7 +3008,7 @@
       <c r="AH37" s="12"/>
       <c r="AI37" s="12"/>
       <c r="AJ37" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
@@ -3029,13 +3020,13 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -3050,10 +3041,10 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W38" s="12">
         <v>4</v>
@@ -3061,7 +3052,7 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12">
@@ -3077,7 +3068,7 @@
       <c r="AH38" s="12"/>
       <c r="AI38" s="12"/>
       <c r="AJ38" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
@@ -3089,13 +3080,13 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -3110,10 +3101,10 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W39" s="12">
         <v>4</v>
@@ -3121,7 +3112,7 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12">
@@ -3137,7 +3128,7 @@
       <c r="AH39" s="12"/>
       <c r="AI39" s="12"/>
       <c r="AJ39" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
@@ -3149,13 +3140,13 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -3170,10 +3161,10 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W40" s="12">
         <v>4</v>
@@ -3181,7 +3172,7 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12">
@@ -3197,7 +3188,7 @@
       <c r="AH40" s="12"/>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
@@ -3209,13 +3200,13 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -3230,10 +3221,10 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W41" s="12">
         <v>9</v>
@@ -3241,7 +3232,7 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12">
@@ -3257,7 +3248,7 @@
       <c r="AH41" s="12"/>
       <c r="AI41" s="12"/>
       <c r="AJ41" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
@@ -3269,13 +3260,13 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3290,10 +3281,10 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W42" s="12">
         <v>5</v>
@@ -3301,7 +3292,7 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12">
@@ -3317,7 +3308,7 @@
       <c r="AH42" s="12"/>
       <c r="AI42" s="12"/>
       <c r="AJ42" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
@@ -3329,13 +3320,13 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
@@ -3350,10 +3341,10 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W43" s="12">
         <v>2</v>
@@ -3361,7 +3352,7 @@
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA43" s="12"/>
       <c r="AB43" s="12">
@@ -3377,7 +3368,7 @@
       <c r="AH43" s="12"/>
       <c r="AI43" s="12"/>
       <c r="AJ43" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
@@ -3389,13 +3380,13 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3410,10 +3401,10 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W44" s="12">
         <v>10</v>
@@ -3421,7 +3412,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA44" s="12"/>
       <c r="AB44" s="12">
@@ -3437,7 +3428,7 @@
       <c r="AH44" s="12"/>
       <c r="AI44" s="12"/>
       <c r="AJ44" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
@@ -3449,13 +3440,13 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3470,10 +3461,10 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V45" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W45" s="12">
         <v>8</v>
@@ -3481,7 +3472,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12">
@@ -3497,7 +3488,7 @@
       <c r="AH45" s="12"/>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
@@ -3509,13 +3500,13 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -3530,10 +3521,10 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
       <c r="U46" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V46" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W46" s="12">
         <v>2</v>
@@ -3541,7 +3532,7 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12">
@@ -3557,7 +3548,7 @@
       <c r="AH46" s="12"/>
       <c r="AI46" s="12"/>
       <c r="AJ46" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
@@ -3569,13 +3560,13 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3590,10 +3581,10 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
       <c r="U47" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W47" s="12">
         <v>1</v>
@@ -3601,7 +3592,7 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA47" s="12"/>
       <c r="AB47" s="12">
@@ -3617,7 +3608,7 @@
       <c r="AH47" s="12"/>
       <c r="AI47" s="12"/>
       <c r="AJ47" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
@@ -3629,13 +3620,13 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -3650,10 +3641,10 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V48" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W48" s="12">
         <v>2</v>
@@ -3661,7 +3652,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA48" s="12"/>
       <c r="AB48" s="12">
@@ -3677,7 +3668,7 @@
       <c r="AH48" s="12"/>
       <c r="AI48" s="12"/>
       <c r="AJ48" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
@@ -3689,13 +3680,13 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -3710,10 +3701,10 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V49" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W49" s="12">
         <v>4</v>
@@ -3721,7 +3712,7 @@
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12">
@@ -3737,7 +3728,7 @@
       <c r="AH49" s="12"/>
       <c r="AI49" s="12"/>
       <c r="AJ49" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK49" s="5"/>
       <c r="AL49" s="5"/>
@@ -3749,13 +3740,13 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
@@ -3770,10 +3761,10 @@
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V50" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W50" s="12">
         <v>4</v>
@@ -3781,7 +3772,7 @@
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA50" s="12"/>
       <c r="AB50" s="12">
@@ -3797,7 +3788,7 @@
       <c r="AH50" s="12"/>
       <c r="AI50" s="12"/>
       <c r="AJ50" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK50" s="5"/>
       <c r="AL50" s="5"/>
@@ -3809,13 +3800,13 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
@@ -3830,10 +3821,10 @@
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V51" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W51" s="12">
         <v>3</v>
@@ -3841,7 +3832,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA51" s="12"/>
       <c r="AB51" s="12">
@@ -3857,7 +3848,7 @@
       <c r="AH51" s="12"/>
       <c r="AI51" s="12"/>
       <c r="AJ51" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
@@ -3869,13 +3860,13 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3890,10 +3881,10 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V52" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W52" s="12">
         <v>8</v>
@@ -3901,7 +3892,7 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA52" s="12"/>
       <c r="AB52" s="12">
@@ -3917,7 +3908,7 @@
       <c r="AH52" s="12"/>
       <c r="AI52" s="12"/>
       <c r="AJ52" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK52" s="5"/>
       <c r="AL52" s="5"/>
@@ -3929,13 +3920,13 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -3950,10 +3941,10 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V53" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W53" s="12">
         <v>11</v>
@@ -3961,7 +3952,7 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="12">
@@ -3977,7 +3968,7 @@
       <c r="AH53" s="12"/>
       <c r="AI53" s="12"/>
       <c r="AJ53" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK53" s="5"/>
       <c r="AL53" s="5"/>
@@ -3989,13 +3980,13 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
@@ -4010,10 +4001,10 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V54" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W54" s="12">
         <v>1</v>
@@ -4021,7 +4012,7 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA54" s="12"/>
       <c r="AB54" s="12">
@@ -4037,7 +4028,7 @@
       <c r="AH54" s="12"/>
       <c r="AI54" s="12"/>
       <c r="AJ54" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK54" s="5"/>
       <c r="AL54" s="5"/>
@@ -4049,13 +4040,13 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -4070,10 +4061,10 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
       <c r="U55" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V55" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W55" s="12">
         <v>16</v>
@@ -4081,7 +4072,7 @@
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12">
@@ -4097,7 +4088,7 @@
       <c r="AH55" s="12"/>
       <c r="AI55" s="12"/>
       <c r="AJ55" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK55" s="5"/>
       <c r="AL55" s="5"/>
@@ -4109,13 +4100,13 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -4130,10 +4121,10 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V56" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W56" s="12">
         <v>6</v>
@@ -4141,7 +4132,7 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA56" s="12"/>
       <c r="AB56" s="12">
@@ -4157,7 +4148,7 @@
       <c r="AH56" s="12"/>
       <c r="AI56" s="12"/>
       <c r="AJ56" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK56" s="5"/>
       <c r="AL56" s="5"/>
@@ -4169,13 +4160,13 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
@@ -4190,10 +4181,10 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V57" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W57" s="12">
         <v>10</v>
@@ -4201,7 +4192,7 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA57" s="12"/>
       <c r="AB57" s="12">
@@ -4217,7 +4208,7 @@
       <c r="AH57" s="12"/>
       <c r="AI57" s="12"/>
       <c r="AJ57" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK57" s="5"/>
       <c r="AL57" s="5"/>
@@ -4229,13 +4220,13 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -4250,10 +4241,10 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V58" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W58" s="12">
         <v>2</v>
@@ -4261,7 +4252,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA58" s="12"/>
       <c r="AB58" s="12">
@@ -4277,7 +4268,7 @@
       <c r="AH58" s="12"/>
       <c r="AI58" s="12"/>
       <c r="AJ58" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK58" s="5"/>
       <c r="AL58" s="5"/>
@@ -4289,13 +4280,13 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
@@ -4310,10 +4301,10 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V59" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W59" s="12">
         <v>6</v>
@@ -4321,7 +4312,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
       <c r="Z59" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA59" s="12"/>
       <c r="AB59" s="12">
@@ -4337,7 +4328,7 @@
       <c r="AH59" s="12"/>
       <c r="AI59" s="12"/>
       <c r="AJ59" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK59" s="5"/>
       <c r="AL59" s="5"/>
@@ -4349,13 +4340,13 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -4370,10 +4361,10 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V60" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W60" s="12">
         <v>1</v>
@@ -4381,7 +4372,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="Z60" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA60" s="12"/>
       <c r="AB60" s="12">
@@ -4397,7 +4388,7 @@
       <c r="AH60" s="12"/>
       <c r="AI60" s="12"/>
       <c r="AJ60" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK60" s="5"/>
       <c r="AL60" s="5"/>
@@ -4409,13 +4400,13 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4430,10 +4421,10 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V61" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W61" s="12">
         <v>1</v>
@@ -4441,7 +4432,7 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
       <c r="Z61" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA61" s="12"/>
       <c r="AB61" s="12">
@@ -4457,7 +4448,7 @@
       <c r="AH61" s="12"/>
       <c r="AI61" s="12"/>
       <c r="AJ61" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
@@ -4469,13 +4460,13 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -4490,10 +4481,10 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V62" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W62" s="12">
         <v>1</v>
@@ -4501,7 +4492,7 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
       <c r="Z62" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA62" s="12"/>
       <c r="AB62" s="12">
@@ -4517,7 +4508,7 @@
       <c r="AH62" s="12"/>
       <c r="AI62" s="12"/>
       <c r="AJ62" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK62" s="5"/>
       <c r="AL62" s="5"/>
@@ -4529,13 +4520,13 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
@@ -4550,10 +4541,10 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
       <c r="U63" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V63" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W63" s="12">
         <v>3</v>
@@ -4561,7 +4552,7 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
       <c r="Z63" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA63" s="12"/>
       <c r="AB63" s="12">
@@ -4577,7 +4568,7 @@
       <c r="AH63" s="12"/>
       <c r="AI63" s="12"/>
       <c r="AJ63" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK63" s="5"/>
       <c r="AL63" s="5"/>
@@ -4589,13 +4580,13 @@
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
@@ -4610,10 +4601,10 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
       <c r="U64" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V64" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W64" s="12">
         <v>12</v>
@@ -4621,7 +4612,7 @@
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
       <c r="Z64" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA64" s="12"/>
       <c r="AB64" s="12">
@@ -4637,7 +4628,7 @@
       <c r="AH64" s="12"/>
       <c r="AI64" s="12"/>
       <c r="AJ64" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK64" s="5"/>
       <c r="AL64" s="5"/>
@@ -4649,13 +4640,13 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
@@ -4670,10 +4661,10 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
       <c r="U65" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V65" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W65" s="12">
         <v>5</v>
@@ -4681,7 +4672,7 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
       <c r="Z65" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA65" s="12"/>
       <c r="AB65" s="12">
@@ -4697,7 +4688,7 @@
       <c r="AH65" s="12"/>
       <c r="AI65" s="12"/>
       <c r="AJ65" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK65" s="5"/>
       <c r="AL65" s="5"/>
@@ -4709,13 +4700,13 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -4730,10 +4721,10 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V66" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W66" s="12">
         <v>4</v>
@@ -4741,7 +4732,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
       <c r="Z66" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA66" s="12"/>
       <c r="AB66" s="12">
@@ -4757,7 +4748,7 @@
       <c r="AH66" s="12"/>
       <c r="AI66" s="12"/>
       <c r="AJ66" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK66" s="5"/>
       <c r="AL66" s="5"/>
@@ -4769,13 +4760,13 @@
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -4790,10 +4781,10 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V67" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W67" s="12">
         <v>2</v>
@@ -4801,7 +4792,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
       <c r="Z67" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA67" s="12"/>
       <c r="AB67" s="12">
@@ -4817,7 +4808,7 @@
       <c r="AH67" s="12"/>
       <c r="AI67" s="12"/>
       <c r="AJ67" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK67" s="5"/>
       <c r="AL67" s="5"/>
@@ -4829,13 +4820,13 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -4850,10 +4841,10 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V68" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W68" s="12">
         <v>19</v>
@@ -4861,7 +4852,7 @@
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
       <c r="Z68" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA68" s="12"/>
       <c r="AB68" s="12">
@@ -4877,7 +4868,7 @@
       <c r="AH68" s="12"/>
       <c r="AI68" s="12"/>
       <c r="AJ68" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK68" s="5"/>
       <c r="AL68" s="5"/>
@@ -4889,13 +4880,13 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -4910,10 +4901,10 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V69" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W69" s="12">
         <v>2</v>
@@ -4921,7 +4912,7 @@
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
       <c r="Z69" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA69" s="12"/>
       <c r="AB69" s="12">
@@ -4937,7 +4928,7 @@
       <c r="AH69" s="12"/>
       <c r="AI69" s="12"/>
       <c r="AJ69" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK69" s="5"/>
       <c r="AL69" s="5"/>
@@ -4949,13 +4940,13 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -4970,10 +4961,10 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V70" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W70" s="12">
         <v>2</v>
@@ -4981,7 +4972,7 @@
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
       <c r="Z70" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA70" s="12"/>
       <c r="AB70" s="12">
@@ -4997,7 +4988,7 @@
       <c r="AH70" s="12"/>
       <c r="AI70" s="12"/>
       <c r="AJ70" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK70" s="5"/>
       <c r="AL70" s="5"/>
@@ -5009,13 +5000,13 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -5030,10 +5021,10 @@
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
       <c r="U71" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V71" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W71" s="12">
         <v>59</v>
@@ -5041,7 +5032,7 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
       <c r="Z71" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA71" s="12"/>
       <c r="AB71" s="12">
@@ -5057,7 +5048,7 @@
       <c r="AH71" s="12"/>
       <c r="AI71" s="12"/>
       <c r="AJ71" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK71" s="5"/>
       <c r="AL71" s="5"/>
@@ -5069,13 +5060,13 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -5090,10 +5081,10 @@
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
       <c r="U72" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V72" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W72" s="12">
         <v>9</v>
@@ -5101,7 +5092,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
       <c r="Z72" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA72" s="12"/>
       <c r="AB72" s="12">
@@ -5117,7 +5108,7 @@
       <c r="AH72" s="12"/>
       <c r="AI72" s="12"/>
       <c r="AJ72" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK72" s="5"/>
       <c r="AL72" s="5"/>
@@ -5129,13 +5120,13 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -5150,10 +5141,10 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
       <c r="U73" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V73" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W73" s="12">
         <v>16</v>
@@ -5161,7 +5152,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
       <c r="Z73" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA73" s="12"/>
       <c r="AB73" s="12">
@@ -5177,7 +5168,7 @@
       <c r="AH73" s="12"/>
       <c r="AI73" s="12"/>
       <c r="AJ73" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK73" s="5"/>
       <c r="AL73" s="5"/>
@@ -5189,13 +5180,13 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -5210,10 +5201,10 @@
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
       <c r="U74" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V74" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W74" s="12">
         <v>14</v>
@@ -5221,7 +5212,7 @@
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
       <c r="Z74" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA74" s="12"/>
       <c r="AB74" s="12">
@@ -5237,7 +5228,7 @@
       <c r="AH74" s="12"/>
       <c r="AI74" s="12"/>
       <c r="AJ74" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK74" s="5"/>
       <c r="AL74" s="5"/>
@@ -5249,13 +5240,13 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -5270,10 +5261,10 @@
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
       <c r="U75" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V75" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W75" s="12">
         <v>5</v>
@@ -5281,7 +5272,7 @@
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
       <c r="Z75" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA75" s="12"/>
       <c r="AB75" s="12">
@@ -5297,7 +5288,7 @@
       <c r="AH75" s="12"/>
       <c r="AI75" s="12"/>
       <c r="AJ75" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK75" s="5"/>
       <c r="AL75" s="5"/>
@@ -5309,13 +5300,13 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
@@ -5330,10 +5321,10 @@
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
       <c r="U76" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V76" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W76" s="12">
         <v>14</v>
@@ -5341,7 +5332,7 @@
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
       <c r="Z76" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA76" s="12"/>
       <c r="AB76" s="12">
@@ -5357,7 +5348,7 @@
       <c r="AH76" s="12"/>
       <c r="AI76" s="12"/>
       <c r="AJ76" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK76" s="5"/>
       <c r="AL76" s="5"/>
@@ -5369,13 +5360,13 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -5390,10 +5381,10 @@
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
       <c r="U77" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V77" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W77" s="12">
         <v>6</v>
@@ -5401,7 +5392,7 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
       <c r="Z77" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA77" s="12"/>
       <c r="AB77" s="12">
@@ -5417,7 +5408,7 @@
       <c r="AH77" s="12"/>
       <c r="AI77" s="12"/>
       <c r="AJ77" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK77" s="5"/>
       <c r="AL77" s="5"/>
@@ -5429,13 +5420,13 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -5450,10 +5441,10 @@
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
       <c r="U78" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V78" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W78" s="12">
         <v>1</v>
@@ -5461,7 +5452,7 @@
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
       <c r="Z78" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA78" s="12"/>
       <c r="AB78" s="12">
@@ -5477,7 +5468,7 @@
       <c r="AH78" s="12"/>
       <c r="AI78" s="12"/>
       <c r="AJ78" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK78" s="5"/>
       <c r="AL78" s="5"/>
@@ -5489,13 +5480,13 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -5510,10 +5501,10 @@
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
       <c r="U79" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V79" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W79" s="12">
         <v>1</v>
@@ -5521,7 +5512,7 @@
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
       <c r="Z79" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA79" s="12"/>
       <c r="AB79" s="12">
@@ -5537,7 +5528,7 @@
       <c r="AH79" s="12"/>
       <c r="AI79" s="12"/>
       <c r="AJ79" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
@@ -5549,13 +5540,13 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -5570,10 +5561,10 @@
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
       <c r="U80" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V80" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W80" s="12">
         <v>2</v>
@@ -5581,7 +5572,7 @@
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA80" s="12"/>
       <c r="AB80" s="12">
@@ -5597,7 +5588,7 @@
       <c r="AH80" s="12"/>
       <c r="AI80" s="12"/>
       <c r="AJ80" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK80" s="5"/>
       <c r="AL80" s="5"/>
@@ -5609,13 +5600,13 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -5630,10 +5621,10 @@
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
       <c r="U81" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V81" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W81" s="12">
         <v>10</v>
@@ -5641,7 +5632,7 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA81" s="12"/>
       <c r="AB81" s="12">
@@ -5657,7 +5648,7 @@
       <c r="AH81" s="12"/>
       <c r="AI81" s="12"/>
       <c r="AJ81" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK81" s="5"/>
       <c r="AL81" s="5"/>
@@ -5669,13 +5660,13 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -5690,10 +5681,10 @@
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
       <c r="U82" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V82" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W82" s="12">
         <v>6</v>
@@ -5701,7 +5692,7 @@
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA82" s="12"/>
       <c r="AB82" s="12">
@@ -5717,7 +5708,7 @@
       <c r="AH82" s="12"/>
       <c r="AI82" s="12"/>
       <c r="AJ82" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK82" s="5"/>
       <c r="AL82" s="5"/>
@@ -5729,13 +5720,13 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -5750,10 +5741,10 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
       <c r="U83" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V83" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W83" s="12">
         <v>6</v>
@@ -5761,7 +5752,7 @@
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA83" s="12"/>
       <c r="AB83" s="12">
@@ -5777,7 +5768,7 @@
       <c r="AH83" s="12"/>
       <c r="AI83" s="12"/>
       <c r="AJ83" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>
@@ -5789,13 +5780,13 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -5810,10 +5801,10 @@
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V84" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W84" s="12">
         <v>29</v>
@@ -5821,7 +5812,7 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA84" s="12"/>
       <c r="AB84" s="12">
@@ -5837,7 +5828,7 @@
       <c r="AH84" s="12"/>
       <c r="AI84" s="12"/>
       <c r="AJ84" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK84" s="5"/>
       <c r="AL84" s="5"/>
@@ -5849,13 +5840,13 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -5870,10 +5861,10 @@
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
       <c r="U85" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V85" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W85" s="12">
         <v>17</v>
@@ -5881,7 +5872,7 @@
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
       <c r="Z85" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA85" s="12"/>
       <c r="AB85" s="12">
@@ -5897,7 +5888,7 @@
       <c r="AH85" s="12"/>
       <c r="AI85" s="12"/>
       <c r="AJ85" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK85" s="5"/>
       <c r="AL85" s="5"/>
@@ -5909,13 +5900,13 @@
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -5930,10 +5921,10 @@
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
       <c r="U86" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V86" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W86" s="12">
         <v>62</v>
@@ -5941,7 +5932,7 @@
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA86" s="12"/>
       <c r="AB86" s="12">
@@ -5957,7 +5948,7 @@
       <c r="AH86" s="12"/>
       <c r="AI86" s="12"/>
       <c r="AJ86" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK86" s="5"/>
       <c r="AL86" s="5"/>
@@ -5969,13 +5960,13 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
@@ -5990,10 +5981,10 @@
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
       <c r="U87" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V87" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W87" s="12">
         <v>37</v>
@@ -6001,7 +5992,7 @@
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
       <c r="Z87" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA87" s="12"/>
       <c r="AB87" s="12">
@@ -6017,7 +6008,7 @@
       <c r="AH87" s="12"/>
       <c r="AI87" s="12"/>
       <c r="AJ87" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK87" s="5"/>
       <c r="AL87" s="5"/>
@@ -6029,13 +6020,13 @@
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
@@ -6050,10 +6041,10 @@
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
       <c r="U88" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V88" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W88" s="12">
         <v>23</v>
@@ -6061,7 +6052,7 @@
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
       <c r="Z88" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA88" s="12"/>
       <c r="AB88" s="12">
@@ -6077,7 +6068,7 @@
       <c r="AH88" s="12"/>
       <c r="AI88" s="12"/>
       <c r="AJ88" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK88" s="5"/>
       <c r="AL88" s="5"/>
@@ -6089,13 +6080,13 @@
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
@@ -6110,10 +6101,10 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
       <c r="U89" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V89" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W89" s="12">
         <v>8</v>
@@ -6121,7 +6112,7 @@
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA89" s="12"/>
       <c r="AB89" s="12">
@@ -6137,7 +6128,7 @@
       <c r="AH89" s="12"/>
       <c r="AI89" s="12"/>
       <c r="AJ89" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK89" s="5"/>
       <c r="AL89" s="5"/>
@@ -6149,13 +6140,13 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -6170,10 +6161,10 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
       <c r="U90" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V90" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W90" s="12">
         <v>2</v>
@@ -6181,7 +6172,7 @@
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA90" s="12"/>
       <c r="AB90" s="12">
@@ -6197,7 +6188,7 @@
       <c r="AH90" s="12"/>
       <c r="AI90" s="12"/>
       <c r="AJ90" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK90" s="5"/>
       <c r="AL90" s="5"/>
@@ -6209,13 +6200,13 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
@@ -6230,10 +6221,10 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
       <c r="U91" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V91" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W91" s="12">
         <v>162</v>
@@ -6241,7 +6232,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA91" s="12"/>
       <c r="AB91" s="12">
@@ -6257,7 +6248,7 @@
       <c r="AH91" s="12"/>
       <c r="AI91" s="12"/>
       <c r="AJ91" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK91" s="5"/>
       <c r="AL91" s="5"/>
@@ -6269,13 +6260,13 @@
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -6290,10 +6281,10 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
       <c r="U92" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V92" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W92" s="12">
         <v>3</v>
@@ -6301,7 +6292,7 @@
       <c r="X92" s="12"/>
       <c r="Y92" s="12"/>
       <c r="Z92" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA92" s="12"/>
       <c r="AB92" s="12">
@@ -6317,7 +6308,7 @@
       <c r="AH92" s="12"/>
       <c r="AI92" s="12"/>
       <c r="AJ92" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK92" s="5"/>
       <c r="AL92" s="5"/>
@@ -6329,13 +6320,13 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -6350,10 +6341,10 @@
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
       <c r="U93" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V93" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W93" s="12">
         <v>8</v>
@@ -6361,7 +6352,7 @@
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
       <c r="Z93" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12">
@@ -6377,7 +6368,7 @@
       <c r="AH93" s="12"/>
       <c r="AI93" s="12"/>
       <c r="AJ93" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK93" s="5"/>
       <c r="AL93" s="5"/>
@@ -6389,13 +6380,13 @@
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -6410,10 +6401,10 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
       <c r="U94" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V94" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W94" s="12">
         <v>15</v>
@@ -6421,7 +6412,7 @@
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
       <c r="Z94" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA94" s="12"/>
       <c r="AB94" s="12">
@@ -6437,7 +6428,7 @@
       <c r="AH94" s="12"/>
       <c r="AI94" s="12"/>
       <c r="AJ94" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK94" s="5"/>
       <c r="AL94" s="5"/>
@@ -6449,13 +6440,13 @@
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -6470,10 +6461,10 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
       <c r="U95" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V95" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W95" s="12">
         <v>15</v>
@@ -6481,7 +6472,7 @@
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
       <c r="Z95" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA95" s="12"/>
       <c r="AB95" s="12">
@@ -6497,7 +6488,7 @@
       <c r="AH95" s="12"/>
       <c r="AI95" s="12"/>
       <c r="AJ95" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK95" s="5"/>
       <c r="AL95" s="5"/>
@@ -6509,13 +6500,13 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -6530,10 +6521,10 @@
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
       <c r="U96" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V96" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W96" s="12">
         <v>47</v>
@@ -6541,7 +6532,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
       <c r="Z96" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA96" s="12"/>
       <c r="AB96" s="12">
@@ -6557,7 +6548,7 @@
       <c r="AH96" s="12"/>
       <c r="AI96" s="12"/>
       <c r="AJ96" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK96" s="5"/>
       <c r="AL96" s="5"/>
@@ -6569,13 +6560,13 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
@@ -6590,10 +6581,10 @@
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
       <c r="U97" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V97" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W97" s="12">
         <v>16</v>
@@ -6601,7 +6592,7 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
       <c r="Z97" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA97" s="12"/>
       <c r="AB97" s="12">
@@ -6617,7 +6608,7 @@
       <c r="AH97" s="12"/>
       <c r="AI97" s="12"/>
       <c r="AJ97" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK97" s="5"/>
       <c r="AL97" s="5"/>
@@ -6629,13 +6620,13 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -6650,10 +6641,10 @@
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
       <c r="U98" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V98" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W98" s="12">
         <v>7</v>
@@ -6661,7 +6652,7 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
       <c r="Z98" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA98" s="12"/>
       <c r="AB98" s="12">
@@ -6677,7 +6668,7 @@
       <c r="AH98" s="12"/>
       <c r="AI98" s="12"/>
       <c r="AJ98" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK98" s="5"/>
       <c r="AL98" s="5"/>
@@ -6689,13 +6680,13 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -6710,10 +6701,10 @@
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
       <c r="U99" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V99" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W99" s="12">
         <v>6</v>
@@ -6721,7 +6712,7 @@
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
       <c r="Z99" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA99" s="12"/>
       <c r="AB99" s="12">
@@ -6737,7 +6728,7 @@
       <c r="AH99" s="12"/>
       <c r="AI99" s="12"/>
       <c r="AJ99" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK99" s="5"/>
       <c r="AL99" s="5"/>
@@ -6749,13 +6740,13 @@
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
@@ -6770,10 +6761,10 @@
       <c r="S100" s="12"/>
       <c r="T100" s="12"/>
       <c r="U100" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V100" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W100" s="12">
         <v>113</v>
@@ -6781,7 +6772,7 @@
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
       <c r="Z100" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA100" s="12"/>
       <c r="AB100" s="12">
@@ -6797,7 +6788,7 @@
       <c r="AH100" s="12"/>
       <c r="AI100" s="12"/>
       <c r="AJ100" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK100" s="5"/>
       <c r="AL100" s="5"/>
@@ -6809,13 +6800,13 @@
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
@@ -6830,10 +6821,10 @@
       <c r="S101" s="12"/>
       <c r="T101" s="12"/>
       <c r="U101" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V101" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W101" s="12">
         <v>15</v>
@@ -6841,7 +6832,7 @@
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
       <c r="Z101" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA101" s="12"/>
       <c r="AB101" s="12">
@@ -6857,7 +6848,7 @@
       <c r="AH101" s="12"/>
       <c r="AI101" s="12"/>
       <c r="AJ101" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK101" s="5"/>
       <c r="AL101" s="5"/>
@@ -6869,13 +6860,13 @@
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -6890,10 +6881,10 @@
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
       <c r="U102" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V102" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W102" s="12">
         <v>19</v>
@@ -6901,7 +6892,7 @@
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
       <c r="Z102" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA102" s="12"/>
       <c r="AB102" s="12">
@@ -6917,7 +6908,7 @@
       <c r="AH102" s="12"/>
       <c r="AI102" s="12"/>
       <c r="AJ102" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK102" s="5"/>
       <c r="AL102" s="5"/>
@@ -6929,13 +6920,13 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
@@ -6950,10 +6941,10 @@
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
       <c r="U103" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V103" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W103" s="12">
         <v>65</v>
@@ -6961,7 +6952,7 @@
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
       <c r="Z103" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA103" s="12"/>
       <c r="AB103" s="12">
@@ -6977,7 +6968,7 @@
       <c r="AH103" s="12"/>
       <c r="AI103" s="12"/>
       <c r="AJ103" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK103" s="5"/>
       <c r="AL103" s="5"/>
@@ -6989,13 +6980,13 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
@@ -7010,10 +7001,10 @@
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
       <c r="U104" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V104" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W104" s="12">
         <v>27</v>
@@ -7021,7 +7012,7 @@
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
       <c r="Z104" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA104" s="12"/>
       <c r="AB104" s="12">
@@ -7037,7 +7028,7 @@
       <c r="AH104" s="12"/>
       <c r="AI104" s="12"/>
       <c r="AJ104" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK104" s="5"/>
       <c r="AL104" s="5"/>
@@ -7049,13 +7040,13 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -7070,10 +7061,10 @@
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
       <c r="U105" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V105" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W105" s="12">
         <v>13</v>
@@ -7081,7 +7072,7 @@
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
       <c r="Z105" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA105" s="12"/>
       <c r="AB105" s="12">
@@ -7097,7 +7088,7 @@
       <c r="AH105" s="12"/>
       <c r="AI105" s="12"/>
       <c r="AJ105" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK105" s="5"/>
       <c r="AL105" s="5"/>
@@ -7109,13 +7100,13 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
@@ -7130,10 +7121,10 @@
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
       <c r="U106" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V106" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W106" s="12">
         <v>9</v>
@@ -7141,7 +7132,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
       <c r="Z106" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA106" s="12"/>
       <c r="AB106" s="12">
@@ -7157,7 +7148,7 @@
       <c r="AH106" s="12"/>
       <c r="AI106" s="12"/>
       <c r="AJ106" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK106" s="5"/>
       <c r="AL106" s="5"/>
@@ -7169,13 +7160,13 @@
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
@@ -7190,10 +7181,10 @@
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
       <c r="U107" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V107" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W107" s="12">
         <v>2</v>
@@ -7201,7 +7192,7 @@
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA107" s="12"/>
       <c r="AB107" s="12">
@@ -7217,7 +7208,7 @@
       <c r="AH107" s="12"/>
       <c r="AI107" s="12"/>
       <c r="AJ107" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK107" s="5"/>
       <c r="AL107" s="5"/>
@@ -7229,13 +7220,13 @@
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -7250,10 +7241,10 @@
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
       <c r="U108" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V108" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W108" s="12">
         <v>1</v>
@@ -7261,7 +7252,7 @@
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA108" s="12"/>
       <c r="AB108" s="12">
@@ -7277,7 +7268,7 @@
       <c r="AH108" s="12"/>
       <c r="AI108" s="12"/>
       <c r="AJ108" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK108" s="5"/>
       <c r="AL108" s="5"/>
@@ -7289,13 +7280,13 @@
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
@@ -7310,10 +7301,10 @@
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
       <c r="U109" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V109" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W109" s="12">
         <v>2</v>
@@ -7321,7 +7312,7 @@
       <c r="X109" s="12"/>
       <c r="Y109" s="12"/>
       <c r="Z109" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA109" s="12"/>
       <c r="AB109" s="12">
@@ -7337,7 +7328,7 @@
       <c r="AH109" s="12"/>
       <c r="AI109" s="12"/>
       <c r="AJ109" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK109" s="5"/>
       <c r="AL109" s="5"/>
@@ -7349,13 +7340,13 @@
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
@@ -7370,10 +7361,10 @@
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
       <c r="U110" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V110" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W110" s="12">
         <v>5</v>
@@ -7381,7 +7372,7 @@
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
       <c r="Z110" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA110" s="12"/>
       <c r="AB110" s="12">
@@ -7397,7 +7388,7 @@
       <c r="AH110" s="12"/>
       <c r="AI110" s="12"/>
       <c r="AJ110" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK110" s="5"/>
       <c r="AL110" s="5"/>
@@ -7409,13 +7400,13 @@
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
@@ -7430,10 +7421,10 @@
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
       <c r="U111" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V111" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W111" s="12">
         <v>8</v>
@@ -7441,7 +7432,7 @@
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA111" s="12"/>
       <c r="AB111" s="12">
@@ -7457,7 +7448,7 @@
       <c r="AH111" s="12"/>
       <c r="AI111" s="12"/>
       <c r="AJ111" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK111" s="5"/>
       <c r="AL111" s="5"/>
@@ -7469,13 +7460,13 @@
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
@@ -7490,10 +7481,10 @@
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
       <c r="U112" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V112" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W112" s="12">
         <v>2</v>
@@ -7501,7 +7492,7 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
       <c r="Z112" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA112" s="12"/>
       <c r="AB112" s="12">
@@ -7517,7 +7508,7 @@
       <c r="AH112" s="12"/>
       <c r="AI112" s="12"/>
       <c r="AJ112" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK112" s="5"/>
       <c r="AL112" s="5"/>
@@ -7529,13 +7520,13 @@
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
@@ -7550,10 +7541,10 @@
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
       <c r="U113" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V113" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W113" s="12">
         <v>2</v>
@@ -7561,7 +7552,7 @@
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
       <c r="Z113" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA113" s="12"/>
       <c r="AB113" s="12">
@@ -7577,7 +7568,7 @@
       <c r="AH113" s="12"/>
       <c r="AI113" s="12"/>
       <c r="AJ113" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK113" s="5"/>
       <c r="AL113" s="5"/>
@@ -7589,13 +7580,13 @@
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
@@ -7610,10 +7601,10 @@
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
       <c r="U114" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V114" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W114" s="12">
         <v>2</v>
@@ -7621,7 +7612,7 @@
       <c r="X114" s="12"/>
       <c r="Y114" s="12"/>
       <c r="Z114" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA114" s="12"/>
       <c r="AB114" s="12">
@@ -7637,7 +7628,7 @@
       <c r="AH114" s="12"/>
       <c r="AI114" s="12"/>
       <c r="AJ114" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK114" s="5"/>
       <c r="AL114" s="5"/>
@@ -7649,13 +7640,13 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
@@ -7670,10 +7661,10 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
       <c r="U115" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V115" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W115" s="12">
         <v>2</v>
@@ -7681,7 +7672,7 @@
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
       <c r="Z115" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA115" s="12"/>
       <c r="AB115" s="12">
@@ -7697,7 +7688,7 @@
       <c r="AH115" s="12"/>
       <c r="AI115" s="12"/>
       <c r="AJ115" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK115" s="5"/>
       <c r="AL115" s="5"/>
@@ -7709,13 +7700,13 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -7730,10 +7721,10 @@
       <c r="S116" s="12"/>
       <c r="T116" s="12"/>
       <c r="U116" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V116" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W116" s="12">
         <v>3</v>
@@ -7741,7 +7732,7 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
       <c r="Z116" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA116" s="12"/>
       <c r="AB116" s="12">
@@ -7757,7 +7748,7 @@
       <c r="AH116" s="12"/>
       <c r="AI116" s="12"/>
       <c r="AJ116" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK116" s="5"/>
       <c r="AL116" s="5"/>
@@ -7769,13 +7760,13 @@
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -7790,10 +7781,10 @@
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
       <c r="U117" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V117" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W117" s="12">
         <v>2</v>
@@ -7801,7 +7792,7 @@
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
       <c r="Z117" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA117" s="12"/>
       <c r="AB117" s="12">
@@ -7817,7 +7808,7 @@
       <c r="AH117" s="12"/>
       <c r="AI117" s="12"/>
       <c r="AJ117" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK117" s="5"/>
       <c r="AL117" s="5"/>
@@ -7829,13 +7820,13 @@
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
@@ -7850,10 +7841,10 @@
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
       <c r="U118" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V118" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W118" s="12">
         <v>1</v>
@@ -7861,7 +7852,7 @@
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
       <c r="Z118" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA118" s="12"/>
       <c r="AB118" s="12">
@@ -7877,7 +7868,7 @@
       <c r="AH118" s="12"/>
       <c r="AI118" s="12"/>
       <c r="AJ118" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK118" s="5"/>
       <c r="AL118" s="5"/>
@@ -7889,13 +7880,13 @@
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
@@ -7910,10 +7901,10 @@
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
       <c r="U119" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V119" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W119" s="12">
         <v>12</v>
@@ -7921,7 +7912,7 @@
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
       <c r="Z119" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA119" s="12"/>
       <c r="AB119" s="12">
@@ -7937,7 +7928,7 @@
       <c r="AH119" s="12"/>
       <c r="AI119" s="12"/>
       <c r="AJ119" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK119" s="5"/>
       <c r="AL119" s="5"/>
@@ -7949,13 +7940,13 @@
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
@@ -7970,10 +7961,10 @@
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
       <c r="U120" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V120" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W120" s="12">
         <v>1</v>
@@ -7981,7 +7972,7 @@
       <c r="X120" s="12"/>
       <c r="Y120" s="12"/>
       <c r="Z120" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA120" s="12"/>
       <c r="AB120" s="12">
@@ -7997,7 +7988,7 @@
       <c r="AH120" s="12"/>
       <c r="AI120" s="12"/>
       <c r="AJ120" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK120" s="5"/>
       <c r="AL120" s="5"/>
@@ -8009,13 +8000,13 @@
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
@@ -8030,10 +8021,10 @@
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
       <c r="U121" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V121" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W121" s="12">
         <v>1</v>
@@ -8041,7 +8032,7 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
       <c r="Z121" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA121" s="12"/>
       <c r="AB121" s="12">
@@ -8057,7 +8048,7 @@
       <c r="AH121" s="12"/>
       <c r="AI121" s="12"/>
       <c r="AJ121" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK121" s="5"/>
       <c r="AL121" s="5"/>
@@ -8069,13 +8060,13 @@
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
@@ -8090,10 +8081,10 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
       <c r="U122" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V122" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W122" s="12">
         <v>8</v>
@@ -8101,7 +8092,7 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
       <c r="Z122" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA122" s="12"/>
       <c r="AB122" s="12">
@@ -8117,7 +8108,7 @@
       <c r="AH122" s="12"/>
       <c r="AI122" s="12"/>
       <c r="AJ122" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK122" s="5"/>
       <c r="AL122" s="5"/>
@@ -8129,13 +8120,13 @@
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
@@ -8150,10 +8141,10 @@
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
       <c r="U123" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V123" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W123" s="12">
         <v>13</v>
@@ -8161,7 +8152,7 @@
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
       <c r="Z123" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA123" s="12"/>
       <c r="AB123" s="12">
@@ -8177,7 +8168,7 @@
       <c r="AH123" s="12"/>
       <c r="AI123" s="12"/>
       <c r="AJ123" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK123" s="5"/>
       <c r="AL123" s="5"/>
@@ -8189,13 +8180,13 @@
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
@@ -8210,10 +8201,10 @@
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
       <c r="U124" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V124" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W124" s="12">
         <v>14</v>
@@ -8221,7 +8212,7 @@
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
       <c r="Z124" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA124" s="12"/>
       <c r="AB124" s="12">
@@ -8237,7 +8228,7 @@
       <c r="AH124" s="12"/>
       <c r="AI124" s="12"/>
       <c r="AJ124" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK124" s="5"/>
       <c r="AL124" s="5"/>
@@ -8249,13 +8240,13 @@
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
@@ -8270,10 +8261,10 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V125" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W125" s="12">
         <v>1</v>
@@ -8281,7 +8272,7 @@
       <c r="X125" s="12"/>
       <c r="Y125" s="12"/>
       <c r="Z125" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA125" s="12"/>
       <c r="AB125" s="12">
@@ -8297,7 +8288,7 @@
       <c r="AH125" s="12"/>
       <c r="AI125" s="12"/>
       <c r="AJ125" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK125" s="5"/>
       <c r="AL125" s="5"/>
@@ -8309,13 +8300,13 @@
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
@@ -8330,10 +8321,10 @@
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
       <c r="U126" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V126" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W126" s="12">
         <v>3</v>
@@ -8341,7 +8332,7 @@
       <c r="X126" s="12"/>
       <c r="Y126" s="12"/>
       <c r="Z126" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA126" s="12"/>
       <c r="AB126" s="12">
@@ -8357,7 +8348,7 @@
       <c r="AH126" s="12"/>
       <c r="AI126" s="12"/>
       <c r="AJ126" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK126" s="5"/>
       <c r="AL126" s="5"/>
@@ -8369,13 +8360,13 @@
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
@@ -8390,10 +8381,10 @@
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
       <c r="U127" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V127" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W127" s="12">
         <v>2</v>
@@ -8401,7 +8392,7 @@
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
       <c r="Z127" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA127" s="12"/>
       <c r="AB127" s="12">
@@ -8417,7 +8408,7 @@
       <c r="AH127" s="12"/>
       <c r="AI127" s="12"/>
       <c r="AJ127" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK127" s="5"/>
       <c r="AL127" s="5"/>
@@ -8429,13 +8420,13 @@
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
@@ -8450,10 +8441,10 @@
       <c r="S128" s="12"/>
       <c r="T128" s="12"/>
       <c r="U128" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V128" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W128" s="12">
         <v>6</v>
@@ -8461,7 +8452,7 @@
       <c r="X128" s="12"/>
       <c r="Y128" s="12"/>
       <c r="Z128" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA128" s="12"/>
       <c r="AB128" s="12">
@@ -8477,7 +8468,7 @@
       <c r="AH128" s="12"/>
       <c r="AI128" s="12"/>
       <c r="AJ128" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK128" s="5"/>
       <c r="AL128" s="5"/>
@@ -8489,13 +8480,13 @@
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
@@ -8510,10 +8501,10 @@
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
       <c r="U129" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V129" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W129" s="12">
         <v>4</v>
@@ -8521,7 +8512,7 @@
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
       <c r="Z129" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA129" s="12"/>
       <c r="AB129" s="12">
@@ -8537,7 +8528,7 @@
       <c r="AH129" s="12"/>
       <c r="AI129" s="12"/>
       <c r="AJ129" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK129" s="5"/>
       <c r="AL129" s="5"/>
@@ -8549,13 +8540,13 @@
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -8570,10 +8561,10 @@
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
       <c r="U130" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V130" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W130" s="12">
         <v>2</v>
@@ -8581,7 +8572,7 @@
       <c r="X130" s="12"/>
       <c r="Y130" s="12"/>
       <c r="Z130" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA130" s="12"/>
       <c r="AB130" s="12">
@@ -8597,7 +8588,7 @@
       <c r="AH130" s="12"/>
       <c r="AI130" s="12"/>
       <c r="AJ130" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK130" s="5"/>
       <c r="AL130" s="5"/>
@@ -8609,13 +8600,13 @@
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -8630,10 +8621,10 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
       <c r="U131" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V131" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W131" s="3">
         <v>3</v>
@@ -8641,7 +8632,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA131" s="3"/>
       <c r="AB131" s="3">
@@ -8657,7 +8648,7 @@
       <c r="AH131" s="3"/>
       <c r="AI131" s="3"/>
       <c r="AJ131" s="10" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AK131" s="10"/>
       <c r="AL131" s="10"/>
@@ -8666,7 +8657,7 @@
     <row r="132" ht="6.8" customHeight="true"/>
     <row r="133">
       <c r="AB133" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC133" s="13"/>
       <c r="AD133" s="13"/>
@@ -8680,7 +8671,7 @@
     </row>
     <row r="134">
       <c r="AB134" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AC134" s="13"/>
       <c r="AD134" s="13"/>
@@ -8695,7 +8686,7 @@
     <row r="135" ht="6.8" customHeight="true"/>
     <row r="136">
       <c r="B136" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -8732,7 +8723,7 @@
     </row>
     <row r="137">
       <c r="B137" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
@@ -8769,7 +8760,7 @@
     </row>
     <row r="138">
       <c r="B138" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -8847,7 +8838,7 @@
     <row r="140"/>
     <row r="141">
       <c r="B141" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -8855,7 +8846,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="J141" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K141" s="14"/>
       <c r="L141" s="14"/>

--- a/files/segments/segment.xlsx
+++ b/files/segments/segment.xlsx
@@ -805,16 +805,17 @@
     <t>Комментарий: [Новый тестовый] Автозаказ для ЛС: emart  №3 Жайляу Маркет</t>
   </si>
   <si>
-    <t>Всего наименований 116, на сумму 1290708.000000 KZT</t>
-  </si>
-  <si>
-    <t>Цифры буквами</t>
+    <t>Всего наименований 116, на сумму 1290708.00
+ KZT</t>
+  </si>
+  <si>
+    <t>один миллион двести девяносто тысяч семьсот восемь тенге   00  тиын</t>
   </si>
   <si>
     <t>Исполнитель:</t>
   </si>
   <si>
-    <t>/Электронный заказ  /</t>
+    <t>/Электронный заказ       /</t>
   </si>
 </sst>
 </file>

--- a/files/segments/segment.xlsx
+++ b/files/segments/segment.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
-  <si>
-    <t>Заказ № 25 от 01.06.2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+  <si>
+    <t>Заказ № 32 от 14.07.2022</t>
   </si>
   <si>
     <t>Поставщик:</t>
@@ -91,37 +91,697 @@
     <t>Лот</t>
   </si>
   <si>
+    <t>00000082934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай Ginger Mojito 20 пакетиков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф0001121 </t>
+  </si>
+  <si>
+    <t>Тестовый производитель</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>00000082950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Golden Ceylon 100 г </t>
+  </si>
+  <si>
+    <t>00000082951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай черный Ceylon 100 г </t>
+  </si>
+  <si>
+    <t>00000082955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай черный Banana Splite № 20 пакетик </t>
+  </si>
+  <si>
+    <t>00000082956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай черный гранулированный Berry Bar 20 г </t>
+  </si>
+  <si>
+    <t>00000082980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шах чай черный Индийский Gold 230 гр </t>
+  </si>
+  <si>
+    <t>00000082981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шах чай черный Индийский Gold 450 г </t>
+  </si>
+  <si>
+    <t>00000082982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шах чай черный индийский Gold 90 г </t>
+  </si>
+  <si>
+    <t>00000082984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯВА каркадэ 80 г </t>
+  </si>
+  <si>
+    <t>00000083310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный мааздам 40% 150 г </t>
+  </si>
+  <si>
+    <t>00000083312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный моцарелла 40% 150 г </t>
+  </si>
+  <si>
+    <t>00000083314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный с грибами 50 г </t>
+  </si>
+  <si>
+    <t>00000083315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 40% 150 г </t>
+  </si>
+  <si>
+    <t>00000083316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 45% 140 г </t>
+  </si>
+  <si>
+    <t>00000083317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 45% 16 порций 280 гр </t>
+  </si>
+  <si>
+    <t>00000083318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 45% 200 г </t>
+  </si>
+  <si>
+    <t>00000083319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 45% 300 г </t>
+  </si>
+  <si>
+    <t>00000083321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 45% 400 г </t>
+  </si>
+  <si>
+    <t>00000083322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сливочный 45% 50 г </t>
+  </si>
+  <si>
+    <t>00000083323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный сырная коллекция 45% 140 г </t>
+  </si>
+  <si>
+    <t>00000083324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр чизбургер плавленный ломтики 40% 150 г </t>
+  </si>
+  <si>
+    <t>00000083325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр шоколадный детский 45% 200 г </t>
+  </si>
+  <si>
+    <t>00000083348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactel молоко с витамином D 2,5% 1,0 л </t>
+  </si>
+  <si>
+    <t>00000083349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactel молоко с витамином D 3,2% 1,0 л </t>
+  </si>
+  <si>
+    <t>00000083377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сметана 15% 200 г </t>
+  </si>
+  <si>
+    <t>00000083378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сметана 15% 400 г </t>
+  </si>
+  <si>
+    <t>00000083379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сметана 20% 200 г </t>
+  </si>
+  <si>
+    <t>00000083380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сметана 20% стакан 400 г </t>
+  </si>
+  <si>
+    <t>00000083419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир 1% 1000 г </t>
+  </si>
+  <si>
+    <t>00000083420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир 1% 900 г </t>
+  </si>
+  <si>
+    <t>00000083421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир 2,5% 1000 г </t>
+  </si>
+  <si>
+    <t>00000083422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир 2,5% 500 г </t>
+  </si>
+  <si>
+    <t>00000083423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир 2,5% 900 г </t>
+  </si>
+  <si>
+    <t>00000083426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир фин пак 2,5% 1000 г </t>
+  </si>
+  <si>
+    <t>00000083435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир Био-С Имун 1,0 л ваниль </t>
+  </si>
+  <si>
+    <t>00000083436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт питьевой Био-С Имун 500 г ваниль </t>
+  </si>
+  <si>
+    <t>00000083437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster Био-С имун ваниль 900 г </t>
+  </si>
+  <si>
+    <t>00000083438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster биойогурт Био-С Имун 500 г клубника </t>
+  </si>
+  <si>
+    <t>00000083439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт питьевой Био-С Имун 500 г персик </t>
+  </si>
+  <si>
+    <t>00000083465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт живой 1,5% 110 г вишня </t>
+  </si>
+  <si>
+    <t>00000083466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт живой 1,5% 110 г клубника </t>
+  </si>
+  <si>
+    <t>00000083467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт живой 1,5% 110 г персик </t>
+  </si>
+  <si>
+    <t>00000083489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster Био-С Карамель 0,5 л </t>
+  </si>
+  <si>
+    <t>00000083490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster Био-С Карамель 1,0 л </t>
+  </si>
+  <si>
+    <t>00000083491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт живой 2% лесные ягоды 0,5 л </t>
+  </si>
+  <si>
+    <t>00000083492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт питьевой 450 г абрикос </t>
+  </si>
+  <si>
+    <t>00000083493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт питьевой 450 г клубника </t>
+  </si>
+  <si>
+    <t>00000083528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний рассыпчатый 0% дойпак 900 г </t>
+  </si>
+  <si>
+    <t>00000083529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний 0,1% контейнер 200 г </t>
+  </si>
+  <si>
+    <t>00000083530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний 0,1% 450 г </t>
+  </si>
+  <si>
+    <t>00000083533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний рассыпчатый 9% дойпак 900 г </t>
+  </si>
+  <si>
+    <t>00000083602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President масло кислосливочное несолёное 82% м/у 400 г </t>
+  </si>
+  <si>
+    <t>00000083603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President масло сливочное несоленое 82% 180 г </t>
+  </si>
+  <si>
+    <t>00000083605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President масло кислосливочное солёное 80% м/у 200 г </t>
+  </si>
+  <si>
+    <t>00000084851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний 5% 200 г </t>
+  </si>
+  <si>
+    <t>00000084852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний 5% 450 г </t>
+  </si>
+  <si>
+    <t>00000084853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог домашний 9% 450 г </t>
+  </si>
+  <si>
+    <t>00000085603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster коктейль молочный Му-у в ассортименте 0,2 л </t>
+  </si>
+  <si>
+    <t>00000086028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Апатай жайма первый сорт 300 г </t>
+  </si>
+  <si>
+    <t>00000086029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Апатай жайма народная 300 г </t>
+  </si>
+  <si>
+    <t>00000086079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт питьевой 900 гр абрикос </t>
+  </si>
+  <si>
+    <t>00000086080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт питьевой 900 гр клубника </t>
+  </si>
+  <si>
+    <t>00000086092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан казы ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000086104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан каша гречневая с говядиной халал ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000086127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster кефир 2,% 450 г вишня </t>
+  </si>
+  <si>
+    <t>00000086130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан килька баланшированная в масле 240 гр </t>
+  </si>
+  <si>
+    <t>00000086418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICI Основа для пиццы 320 гр </t>
+  </si>
+  <si>
+    <t>00000086662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр мясо на гриле 45% 140 г </t>
+  </si>
+  <si>
+    <t>00000086665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр плавленный мясная коллекция 45% 140 г </t>
+  </si>
+  <si>
+    <t>00000086670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр чеддер 40% 150 г </t>
+  </si>
+  <si>
+    <t>00000086708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster творог President домашний 9% 200 г </t>
+  </si>
+  <si>
+    <t>00000086742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка говядина ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000086743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка говядина 1 сорт ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000086744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка говядина высший сорт ж/б 250 гр </t>
+  </si>
+  <si>
+    <t>00000086778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шах чай голд вечерний 90 г </t>
+  </si>
+  <si>
+    <t>00000086779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield Чай зеленый Flying Dragon 100 г </t>
+  </si>
+  <si>
+    <t>00000086794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Earl Grey Fantasy 200 г </t>
+  </si>
+  <si>
+    <t>00000087300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка конина ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000087754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан лещ бланшированный в масле ж/б 240 гр </t>
+  </si>
+  <si>
+    <t>00000087952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Апатай жайма высший сорт 300 г </t>
+  </si>
+  <si>
+    <t>00000087958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сметана домашняя 25% стакан 385 г </t>
+  </si>
+  <si>
+    <t>00000088288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан каша халал рисовая с говядиной 325 г </t>
+  </si>
+  <si>
+    <t>00000088289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан килька балтийская неразделанная в томатном соусе ж/б 240 гр </t>
+  </si>
+  <si>
+    <t>00000088290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка говядина троицкая 325 г </t>
+  </si>
+  <si>
+    <t>00000088291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка говядина новинка 325 г </t>
+  </si>
+  <si>
+    <t>00000088417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoodMaster йогурт 900 г вишня </t>
+  </si>
+  <si>
+    <t>00000088626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан тушенка говядина халяль 325 г </t>
+  </si>
+  <si>
+    <t>00000088696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardin кофе Kenya Kilimanjaro 75 г </t>
+  </si>
+  <si>
+    <t>00000090272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай зеленый листовой Quince Ginger 100 гр </t>
+  </si>
+  <si>
+    <t>00000090573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан чужук Easy Open ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000091984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай Spring Melody black tea 1.5 x 25 x 10 </t>
+  </si>
+  <si>
+    <t>00000092143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай Summer Time herbal 1,8 г № 20 шт </t>
+  </si>
+  <si>
+    <t>00000092376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President брынза 45% 250 г </t>
+  </si>
+  <si>
+    <t>00000093095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жокей кофе молотый Арабика 200 г </t>
+  </si>
+  <si>
+    <t>00000093114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICI крабовые палочки душа океана 200 гр </t>
+  </si>
+  <si>
+    <t>00000095410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай зеленый Flying Dragon 2 гр № 25 шт </t>
+  </si>
+  <si>
+    <t>00000095419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай черный Sunrise 100 г </t>
+  </si>
+  <si>
+    <t>00000095493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield черный чай Classic Breakfast 2 х 25 х 15 </t>
+  </si>
+  <si>
+    <t>00000095494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Earl Grey Fantasy № 25 пакетик </t>
+  </si>
+  <si>
+    <t>00000095497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Golden Geylon 200 г </t>
+  </si>
+  <si>
+    <t>00000095498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Kenyan Junrise 200 г </t>
+  </si>
+  <si>
+    <t>00000095499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Kenyan Sunrise 100 г </t>
+  </si>
+  <si>
+    <t>00000095500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Spring Melody 100 г </t>
+  </si>
+  <si>
+    <t>00000095504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай черный гранулированный Kenya 200 г </t>
+  </si>
+  <si>
+    <t>00000096035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан каша перловая с говядиной 325 г </t>
+  </si>
+  <si>
+    <t>00000096429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President сыр фета Salakis 45% лоток 250 г </t>
+  </si>
+  <si>
+    <t>00000096564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай Kenyan Sunrise. black № 25 шт </t>
+  </si>
+  <si>
+    <t>00000096573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Barberry Garden 25 пакетиков 37,5 г </t>
+  </si>
+  <si>
+    <t>00000096574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Golden Geylon № 25 шт </t>
+  </si>
+  <si>
+    <t>00000098926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield чай черный Barberry Garden 100 г </t>
+  </si>
+  <si>
     <t>00000100781</t>
   </si>
   <si>
     <t xml:space="preserve">Улан тушенка баранина высший сорт ж/б 325 г </t>
   </si>
   <si>
-    <t>Ф0000509</t>
-  </si>
-  <si>
-    <t>Тестовый производитель</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>00000096564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай Kenyan Sunrise. black № 25 шт </t>
-  </si>
-  <si>
-    <t>00000095500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Spring Melody 100 г </t>
-  </si>
-  <si>
-    <t>00000096035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан каша перловая с говядиной 325 г </t>
+    <t>00000100782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан каша гречневая с говядиной ж/б 325 г </t>
+  </si>
+  <si>
+    <t>00000101773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан килька бланшированная в масле 325 г </t>
+  </si>
+  <si>
+    <t>00000101774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан килька Балтийская в томатном соусе 325 г </t>
   </si>
   <si>
     <t>00000102119</t>
@@ -130,10 +790,58 @@
     <t xml:space="preserve">Greenfield чай травяной Summer Bouquet Herbal tea № 25 пакетик </t>
   </si>
   <si>
-    <t>00000101773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан килька бланшированная в масле 325 г </t>
+    <t>00000104830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан килька в томатном соусе 240 гр </t>
+  </si>
+  <si>
+    <t>00000105473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жокей кофе растворимый Мокка 70 г </t>
+  </si>
+  <si>
+    <t>00000108867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauer смесь быстрозамороженная гавайская м/у 400 г </t>
+  </si>
+  <si>
+    <t>00000109458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President творог нежный 3,6% 130 г чернослив </t>
+  </si>
+  <si>
+    <t>00000111229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess чай Goldberry black tea №25 пак </t>
+  </si>
+  <si>
+    <t>00000111574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardin чай Guatemala Atitian 12 стекло 95 г </t>
+  </si>
+  <si>
+    <t>00000111580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шах чай голд цейлонский черный листовой 400 гр </t>
+  </si>
+  <si>
+    <t>00000117959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauer капуста броккколи 400 гр </t>
+  </si>
+  <si>
+    <t>00000117975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICI пельмени GYOZA с рыбой и овощами заморожеными 400 гр № 6 шт </t>
   </si>
   <si>
     <t>00000117977</t>
@@ -142,674 +850,20 @@
     <t>Хинкали зам. VICI 600гр-4шт/кр</t>
   </si>
   <si>
-    <t>00000111580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шах чай голд цейлонский черный листовой 400 гр </t>
-  </si>
-  <si>
-    <t>00000105473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жокей кофе растворимый Мокка 70 г </t>
-  </si>
-  <si>
-    <t>00000111229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай Goldberry black tea №25 пак </t>
-  </si>
-  <si>
-    <t>00000083467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт живой 1,5% 110 г персик </t>
-  </si>
-  <si>
-    <t>00000086708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster творог President домашний 9% 200 г </t>
-  </si>
-  <si>
-    <t>00000086670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр чеддер 40% 150 г </t>
-  </si>
-  <si>
-    <t>00000083489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster Био-С Карамель 0,5 л </t>
-  </si>
-  <si>
-    <t>00000083493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт питьевой 450 г клубника </t>
-  </si>
-  <si>
-    <t>00000083492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт питьевой 450 г абрикос </t>
-  </si>
-  <si>
-    <t>00000083466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт живой 1,5% 110 г клубника </t>
-  </si>
-  <si>
-    <t>00000083465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт живой 1,5% 110 г вишня </t>
-  </si>
-  <si>
-    <t>00000086665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный мясная коллекция 45% 140 г </t>
-  </si>
-  <si>
-    <t>00000086662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр мясо на гриле 45% 140 г </t>
-  </si>
-  <si>
-    <t>00000086080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт питьевой 900 гр клубника </t>
-  </si>
-  <si>
-    <t>00000086079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт питьевой 900 гр абрикос </t>
-  </si>
-  <si>
-    <t>00000086743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка говядина 1 сорт ж/б 325 г </t>
-  </si>
-  <si>
-    <t>00000086742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка говядина ж/б 325 г </t>
-  </si>
-  <si>
-    <t>00000086418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICI Основа для пиццы 320 гр </t>
-  </si>
-  <si>
-    <t>00000086130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан килька баланшированная в масле 240 гр </t>
-  </si>
-  <si>
-    <t>00000095419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай черный Sunrise 100 г </t>
-  </si>
-  <si>
-    <t>00000095410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай зеленый Flying Dragon 2 гр № 25 шт </t>
-  </si>
-  <si>
-    <t>00000083603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President масло сливочное несоленое 82% 180 г </t>
-  </si>
-  <si>
-    <t>00000083602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President масло кислосливочное несолёное 82% м/у 400 г </t>
-  </si>
-  <si>
-    <t>00000095498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Kenyan Junrise 200 г </t>
-  </si>
-  <si>
-    <t>00000095497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Golden Geylon 200 г </t>
-  </si>
-  <si>
-    <t>00000093095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жокей кофе молотый Арабика 200 г </t>
-  </si>
-  <si>
-    <t>00000092376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President брынза 45% 250 г </t>
-  </si>
-  <si>
-    <t>00000083533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний рассыпчатый 9% дойпак 900 г </t>
-  </si>
-  <si>
-    <t>00000083530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний 0,1% 450 г </t>
-  </si>
-  <si>
-    <t>00000083491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт живой 2% лесные ягоды 0,5 л </t>
-  </si>
-  <si>
-    <t>00000083490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster Био-С Карамель 1,0 л </t>
-  </si>
-  <si>
-    <t>00000095494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Earl Grey Fantasy № 25 пакетик </t>
-  </si>
-  <si>
-    <t>00000084852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний 5% 450 г </t>
-  </si>
-  <si>
-    <t>00000084851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний 5% 200 г </t>
-  </si>
-  <si>
-    <t>00000083529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний 0,1% контейнер 200 г </t>
-  </si>
-  <si>
-    <t>00000111574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jardin чай Guatemala Atitian 12 стекло 95 г </t>
-  </si>
-  <si>
-    <t>00000083528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний рассыпчатый 0% дойпак 900 г </t>
-  </si>
-  <si>
-    <t>00000086794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Earl Grey Fantasy 200 г </t>
-  </si>
-  <si>
-    <t>00000086779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield Чай зеленый Flying Dragon 100 г </t>
-  </si>
-  <si>
-    <t>00000117959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bauer капуста броккколи 400 гр </t>
-  </si>
-  <si>
-    <t>00000096429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр фета Salakis 45% лоток 250 г </t>
-  </si>
-  <si>
-    <t>00000088289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан килька балтийская неразделанная в томатном соусе ж/б 240 гр </t>
-  </si>
-  <si>
-    <t>00000087952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апатай жайма высший сорт 300 г </t>
-  </si>
-  <si>
-    <t>00000086778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шах чай голд вечерний 90 г </t>
-  </si>
-  <si>
-    <t>00000086744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка говядина высший сорт ж/б 250 гр </t>
-  </si>
-  <si>
-    <t>00000083318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 45% 200 г </t>
-  </si>
-  <si>
-    <t>00000083319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 45% 300 г </t>
-  </si>
-  <si>
-    <t>00000083325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр шоколадный детский 45% 200 г </t>
-  </si>
-  <si>
-    <t>00000083348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactel молоко с витамином D 2,5% 1,0 л </t>
-  </si>
-  <si>
-    <t>00000083314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный с грибами 50 г </t>
-  </si>
-  <si>
-    <t>00000083315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 40% 150 г </t>
-  </si>
-  <si>
-    <t>00000083321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 45% 400 г </t>
-  </si>
-  <si>
-    <t>00000083322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 45% 50 г </t>
-  </si>
-  <si>
-    <t>00000084853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог домашний 9% 450 г </t>
-  </si>
-  <si>
-    <t>00000085603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster коктейль молочный Му-у в ассортименте 0,2 л </t>
-  </si>
-  <si>
-    <t>00000086092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан казы ж/б 325 г </t>
-  </si>
-  <si>
-    <t>00000086127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир 2,% 450 г вишня </t>
-  </si>
-  <si>
-    <t>00000083323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сырная коллекция 45% 140 г </t>
-  </si>
-  <si>
-    <t>00000083324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр чизбургер плавленный ломтики 40% 150 г </t>
-  </si>
-  <si>
-    <t>00000086028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апатай жайма первый сорт 300 г </t>
-  </si>
-  <si>
-    <t>00000086029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апатай жайма народная 300 г </t>
-  </si>
-  <si>
-    <t>00000083422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир 2,5% 500 г </t>
-  </si>
-  <si>
-    <t>00000083423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир 2,5% 900 г </t>
-  </si>
-  <si>
-    <t>00000083438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster биойогурт Био-С Имун 500 г клубника </t>
-  </si>
-  <si>
-    <t>00000083439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт питьевой Био-С Имун 500 г персик </t>
-  </si>
-  <si>
-    <t>00000083380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сметана 20% стакан 400 г </t>
-  </si>
-  <si>
-    <t>00000083419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир 1% 1000 г </t>
-  </si>
-  <si>
-    <t>00000083426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир фин пак 2,5% 1000 г </t>
-  </si>
-  <si>
-    <t>00000083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир Био-С Имун 1,0 л ваниль </t>
-  </si>
-  <si>
-    <t>00000082982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шах чай черный индийский Gold 90 г </t>
-  </si>
-  <si>
-    <t>00000082984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЯВА каркадэ 80 г </t>
-  </si>
-  <si>
-    <t>00000083316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 45% 140 г </t>
-  </si>
-  <si>
-    <t>00000083317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный сливочный 45% 16 порций 280 гр </t>
-  </si>
-  <si>
-    <t>00000083436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт питьевой Био-С Имун 500 г ваниль </t>
-  </si>
-  <si>
-    <t>00000083437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster Био-С имун ваниль 900 г </t>
-  </si>
-  <si>
-    <t>00000083310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный мааздам 40% 150 г </t>
-  </si>
-  <si>
-    <t>00000083312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сыр плавленный моцарелла 40% 150 г </t>
-  </si>
-  <si>
-    <t>00000083349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactel молоко с витамином D 3,2% 1,0 л </t>
-  </si>
-  <si>
-    <t>00000083377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сметана 15% 200 г </t>
-  </si>
-  <si>
-    <t>00000083420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир 1% 900 г </t>
-  </si>
-  <si>
-    <t>00000083421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster кефир 2,5% 1000 г </t>
-  </si>
-  <si>
-    <t>00000083378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сметана 15% 400 г </t>
-  </si>
-  <si>
-    <t>00000083379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President сметана 20% 200 г </t>
-  </si>
-  <si>
-    <t>00000082934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай Ginger Mojito 20 пакетиков </t>
-  </si>
-  <si>
-    <t>00000082980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шах чай черный Индийский Gold 230 гр </t>
-  </si>
-  <si>
-    <t>00000082981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шах чай черный Индийский Gold 450 г </t>
-  </si>
-  <si>
-    <t>00000082950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Golden Ceylon 100 г </t>
-  </si>
-  <si>
-    <t>00000082951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай черный Ceylon 100 г </t>
-  </si>
-  <si>
-    <t>00000082955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай черный Banana Splite № 20 пакетик </t>
-  </si>
-  <si>
-    <t>00000082956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай черный гранулированный Berry Bar 20 г </t>
-  </si>
-  <si>
-    <t>00000095499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Kenyan Sunrise 100 г </t>
-  </si>
-  <si>
-    <t>00000090573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан чужук Easy Open ж/б 325 г </t>
-  </si>
-  <si>
-    <t>00000088696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jardin кофе Kenya Kilimanjaro 75 г </t>
-  </si>
-  <si>
-    <t>00000088626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка говядина халяль 325 г </t>
-  </si>
-  <si>
-    <t>00000088417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FoodMaster йогурт 900 г вишня </t>
-  </si>
-  <si>
-    <t>00000087754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан лещ бланшированный в масле ж/б 240 гр </t>
-  </si>
-  <si>
-    <t>00000087300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка конина ж/б 325 г </t>
-  </si>
-  <si>
-    <t>00000092143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай Summer Time herbal 1,8 г № 20 шт </t>
-  </si>
-  <si>
-    <t>00000091984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай Spring Melody black tea 1.5 x 25 x 10 </t>
-  </si>
-  <si>
-    <t>00000088291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка говядина новинка 325 г </t>
-  </si>
-  <si>
-    <t>00000088290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан тушенка говядина троицкая 325 г </t>
-  </si>
-  <si>
-    <t>00000101774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан килька Балтийская в томатном соусе 325 г </t>
-  </si>
-  <si>
-    <t>00000109458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President творог нежный 3,6% 130 г чернослив </t>
-  </si>
-  <si>
-    <t>00000108867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bauer смесь быстрозамороженная гавайская м/у 400 г </t>
-  </si>
-  <si>
-    <t>00000100782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан каша гречневая с говядиной ж/б 325 г </t>
-  </si>
-  <si>
-    <t>00000104830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улан килька в томатном соусе 240 гр </t>
-  </si>
-  <si>
-    <t>00000095504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tess чай черный гранулированный Kenya 200 г </t>
-  </si>
-  <si>
-    <t>00000096574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield чай черный Golden Geylon № 25 шт </t>
-  </si>
-  <si>
-    <t>00000095493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenfield черный чай Classic Breakfast 2 х 25 х 15 </t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
     <t>В том числе НДС:</t>
   </si>
   <si>
-    <t>Комментарий: [Новый тестовый] Автозаказ для ЛС: emart  №3 Жайляу Маркет</t>
-  </si>
-  <si>
-    <t>Всего наименований 116, на сумму 1290708.00
+    <t>Комментарий: [Новый тестовый] Автозаказ для ПФ: emart  №3 Жайляу Маркет</t>
+  </si>
+  <si>
+    <t>Всего наименований 142, на сумму 1947051.00
  KZT</t>
   </si>
   <si>
-    <t>один миллион двести девяносто тысяч семьсот восемь тенге   00  тиын</t>
+    <t>один миллион девятьсот сорок семь тысяч пятьдесят один тенге   00  тиын</t>
   </si>
   <si>
     <t>Исполнитель:</t>
@@ -1728,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="W16" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
@@ -1743,7 +1797,7 @@
       <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12">
-        <v>1998</v>
+        <v>11988</v>
       </c>
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
@@ -1788,7 +1842,7 @@
         <v>28</v>
       </c>
       <c r="W17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -1803,7 +1857,7 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="12">
-        <v>999</v>
+        <v>1998</v>
       </c>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
@@ -1848,7 +1902,7 @@
         <v>28</v>
       </c>
       <c r="W18" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -1863,7 +1917,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12">
-        <v>999</v>
+        <v>6993</v>
       </c>
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
@@ -1908,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="W19" s="12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -1923,7 +1977,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12">
-        <v>2997</v>
+        <v>12987</v>
       </c>
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
@@ -1968,7 +2022,7 @@
         <v>28</v>
       </c>
       <c r="W20" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -1983,7 +2037,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12">
-        <v>999</v>
+        <v>7992</v>
       </c>
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
@@ -2028,7 +2082,7 @@
         <v>28</v>
       </c>
       <c r="W21" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -2043,7 +2097,7 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="12">
-        <v>2997</v>
+        <v>1998</v>
       </c>
       <c r="AG21" s="12"/>
       <c r="AH21" s="12"/>
@@ -2088,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="W22" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
@@ -2103,7 +2157,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12">
-        <v>1998</v>
+        <v>999</v>
       </c>
       <c r="AG22" s="12"/>
       <c r="AH22" s="12"/>
@@ -2208,7 +2262,7 @@
         <v>28</v>
       </c>
       <c r="W24" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -2223,7 +2277,7 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12">
-        <v>999</v>
+        <v>7992</v>
       </c>
       <c r="AG24" s="12"/>
       <c r="AH24" s="12"/>
@@ -2268,7 +2322,7 @@
         <v>28</v>
       </c>
       <c r="W25" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -2283,7 +2337,7 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12">
-        <v>1998</v>
+        <v>8991</v>
       </c>
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
@@ -2328,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="W26" s="12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -2343,7 +2397,7 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12">
-        <v>17982</v>
+        <v>6993</v>
       </c>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
@@ -2388,7 +2442,7 @@
         <v>28</v>
       </c>
       <c r="W27" s="12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -2403,7 +2457,7 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12">
-        <v>13986</v>
+        <v>8991</v>
       </c>
       <c r="AG27" s="12"/>
       <c r="AH27" s="12"/>
@@ -2448,7 +2502,7 @@
         <v>28</v>
       </c>
       <c r="W28" s="12">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -2463,7 +2517,7 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12">
-        <v>6993</v>
+        <v>18981</v>
       </c>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
@@ -2508,7 +2562,7 @@
         <v>28</v>
       </c>
       <c r="W29" s="12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -2523,7 +2577,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12">
-        <v>4995</v>
+        <v>20979</v>
       </c>
       <c r="AG29" s="12"/>
       <c r="AH29" s="12"/>
@@ -2568,7 +2622,7 @@
         <v>28</v>
       </c>
       <c r="W30" s="12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
@@ -2583,7 +2637,7 @@
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12">
-        <v>13986</v>
+        <v>16983</v>
       </c>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
@@ -2628,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="W31" s="12">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -2643,7 +2697,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12">
-        <v>2997</v>
+        <v>25974</v>
       </c>
       <c r="AG31" s="12"/>
       <c r="AH31" s="12"/>
@@ -2661,13 +2715,13 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2688,7 +2742,7 @@
         <v>28</v>
       </c>
       <c r="W32" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
@@ -2703,7 +2757,7 @@
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12">
-        <v>17982</v>
+        <v>25974</v>
       </c>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -2721,13 +2775,13 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2748,7 +2802,7 @@
         <v>28</v>
       </c>
       <c r="W33" s="12">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -2763,7 +2817,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="12">
-        <v>17982</v>
+        <v>3996</v>
       </c>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
@@ -2781,13 +2835,13 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -2808,7 +2862,7 @@
         <v>28</v>
       </c>
       <c r="W34" s="12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
@@ -2823,7 +2877,7 @@
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="12">
-        <v>999</v>
+        <v>15984</v>
       </c>
       <c r="AG34" s="12"/>
       <c r="AH34" s="12"/>
@@ -2841,13 +2895,13 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -2868,7 +2922,7 @@
         <v>28</v>
       </c>
       <c r="W35" s="12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -2883,7 +2937,7 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12">
-        <v>1998</v>
+        <v>15984</v>
       </c>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
@@ -2901,13 +2955,13 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -2928,7 +2982,7 @@
         <v>28</v>
       </c>
       <c r="W36" s="12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
@@ -2943,7 +2997,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12">
-        <v>12987</v>
+        <v>9990</v>
       </c>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
@@ -2961,13 +3015,13 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -2988,7 +3042,7 @@
         <v>28</v>
       </c>
       <c r="W37" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -3003,7 +3057,7 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12">
-        <v>14985</v>
+        <v>1998</v>
       </c>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
@@ -3021,13 +3075,13 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -3048,7 +3102,7 @@
         <v>28</v>
       </c>
       <c r="W38" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
@@ -3063,7 +3117,7 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12">
-        <v>3996</v>
+        <v>9990</v>
       </c>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
@@ -3081,13 +3135,13 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -3108,7 +3162,7 @@
         <v>28</v>
       </c>
       <c r="W39" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
@@ -3123,7 +3177,7 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
       <c r="AF39" s="12">
-        <v>3996</v>
+        <v>1998</v>
       </c>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
@@ -3141,13 +3195,13 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -3168,7 +3222,7 @@
         <v>28</v>
       </c>
       <c r="W40" s="12">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
@@ -3183,7 +3237,7 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12">
-        <v>3996</v>
+        <v>89910</v>
       </c>
       <c r="AG40" s="12"/>
       <c r="AH40" s="12"/>
@@ -3201,13 +3255,13 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -3228,7 +3282,7 @@
         <v>28</v>
       </c>
       <c r="W41" s="12">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -3243,7 +3297,7 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="12">
-        <v>8991</v>
+        <v>128871</v>
       </c>
       <c r="AG41" s="12"/>
       <c r="AH41" s="12"/>
@@ -3261,13 +3315,13 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3288,7 +3342,7 @@
         <v>28</v>
       </c>
       <c r="W42" s="12">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
@@ -3303,7 +3357,7 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12">
-        <v>4995</v>
+        <v>16983</v>
       </c>
       <c r="AG42" s="12"/>
       <c r="AH42" s="12"/>
@@ -3321,13 +3375,13 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
@@ -3348,7 +3402,7 @@
         <v>28</v>
       </c>
       <c r="W43" s="12">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
@@ -3363,7 +3417,7 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="12">
-        <v>1998</v>
+        <v>33966</v>
       </c>
       <c r="AG43" s="12"/>
       <c r="AH43" s="12"/>
@@ -3381,13 +3435,13 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3408,7 +3462,7 @@
         <v>28</v>
       </c>
       <c r="W44" s="12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
@@ -3423,7 +3477,7 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12">
-        <v>9990</v>
+        <v>16983</v>
       </c>
       <c r="AG44" s="12"/>
       <c r="AH44" s="12"/>
@@ -3441,13 +3495,13 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3468,7 +3522,7 @@
         <v>28</v>
       </c>
       <c r="W45" s="12">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
@@ -3483,7 +3537,7 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="12">
-        <v>7992</v>
+        <v>22977</v>
       </c>
       <c r="AG45" s="12"/>
       <c r="AH45" s="12"/>
@@ -3501,13 +3555,13 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -3528,7 +3582,7 @@
         <v>28</v>
       </c>
       <c r="W46" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
@@ -3543,7 +3597,7 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="12">
-        <v>1998</v>
+        <v>11988</v>
       </c>
       <c r="AG46" s="12"/>
       <c r="AH46" s="12"/>
@@ -3561,13 +3615,13 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3588,7 +3642,7 @@
         <v>28</v>
       </c>
       <c r="W47" s="12">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
@@ -3603,7 +3657,7 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
       <c r="AF47" s="12">
-        <v>999</v>
+        <v>31968</v>
       </c>
       <c r="AG47" s="12"/>
       <c r="AH47" s="12"/>
@@ -3621,13 +3675,13 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -3648,7 +3702,7 @@
         <v>28</v>
       </c>
       <c r="W48" s="12">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
@@ -3663,7 +3717,7 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
       <c r="AF48" s="12">
-        <v>1998</v>
+        <v>81918</v>
       </c>
       <c r="AG48" s="12"/>
       <c r="AH48" s="12"/>
@@ -3681,13 +3735,13 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -3708,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="W49" s="12">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
@@ -3723,7 +3777,7 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="12">
-        <v>3996</v>
+        <v>36963</v>
       </c>
       <c r="AG49" s="12"/>
       <c r="AH49" s="12"/>
@@ -3741,13 +3795,13 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
@@ -3768,7 +3822,7 @@
         <v>28</v>
       </c>
       <c r="W50" s="12">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
@@ -3783,7 +3837,7 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="12">
-        <v>3996</v>
+        <v>27972</v>
       </c>
       <c r="AG50" s="12"/>
       <c r="AH50" s="12"/>
@@ -3801,13 +3855,13 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
@@ -3828,7 +3882,7 @@
         <v>28</v>
       </c>
       <c r="W51" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
@@ -3843,7 +3897,7 @@
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
       <c r="AF51" s="12">
-        <v>2997</v>
+        <v>1998</v>
       </c>
       <c r="AG51" s="12"/>
       <c r="AH51" s="12"/>
@@ -3861,13 +3915,13 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3888,7 +3942,7 @@
         <v>28</v>
       </c>
       <c r="W52" s="12">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
@@ -3903,7 +3957,7 @@
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12">
-        <v>7992</v>
+        <v>192807</v>
       </c>
       <c r="AG52" s="12"/>
       <c r="AH52" s="12"/>
@@ -3921,13 +3975,13 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -3948,7 +4002,7 @@
         <v>28</v>
       </c>
       <c r="W53" s="12">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
@@ -3963,7 +4017,7 @@
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
       <c r="AF53" s="12">
-        <v>10989</v>
+        <v>61938</v>
       </c>
       <c r="AG53" s="12"/>
       <c r="AH53" s="12"/>
@@ -3981,13 +4035,13 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
@@ -4008,7 +4062,7 @@
         <v>28</v>
       </c>
       <c r="W54" s="12">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
@@ -4023,7 +4077,7 @@
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
       <c r="AF54" s="12">
-        <v>999</v>
+        <v>26973</v>
       </c>
       <c r="AG54" s="12"/>
       <c r="AH54" s="12"/>
@@ -4041,13 +4095,13 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -4068,7 +4122,7 @@
         <v>28</v>
       </c>
       <c r="W55" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
@@ -4083,7 +4137,7 @@
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
       <c r="AF55" s="12">
-        <v>15984</v>
+        <v>74925</v>
       </c>
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
@@ -4101,13 +4155,13 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -4128,7 +4182,7 @@
         <v>28</v>
       </c>
       <c r="W56" s="12">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
@@ -4143,7 +4197,7 @@
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
       <c r="AF56" s="12">
-        <v>5994</v>
+        <v>74925</v>
       </c>
       <c r="AG56" s="12"/>
       <c r="AH56" s="12"/>
@@ -4161,13 +4215,13 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
@@ -4188,7 +4242,7 @@
         <v>28</v>
       </c>
       <c r="W57" s="12">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
@@ -4203,7 +4257,7 @@
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
       <c r="AF57" s="12">
-        <v>9990</v>
+        <v>41958</v>
       </c>
       <c r="AG57" s="12"/>
       <c r="AH57" s="12"/>
@@ -4221,13 +4275,13 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
@@ -4248,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="W58" s="12">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
@@ -4263,7 +4317,7 @@
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
       <c r="AF58" s="12">
-        <v>1998</v>
+        <v>41958</v>
       </c>
       <c r="AG58" s="12"/>
       <c r="AH58" s="12"/>
@@ -4281,13 +4335,13 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
@@ -4308,7 +4362,7 @@
         <v>28</v>
       </c>
       <c r="W59" s="12">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
@@ -4323,7 +4377,7 @@
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
       <c r="AF59" s="12">
-        <v>5994</v>
+        <v>21978</v>
       </c>
       <c r="AG59" s="12"/>
       <c r="AH59" s="12"/>
@@ -4341,13 +4395,13 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -4368,7 +4422,7 @@
         <v>28</v>
       </c>
       <c r="W60" s="12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
@@ -4383,7 +4437,7 @@
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
       <c r="AF60" s="12">
-        <v>999</v>
+        <v>21978</v>
       </c>
       <c r="AG60" s="12"/>
       <c r="AH60" s="12"/>
@@ -4401,13 +4455,13 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4428,7 +4482,7 @@
         <v>28</v>
       </c>
       <c r="W61" s="12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
@@ -4443,7 +4497,7 @@
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
       <c r="AF61" s="12">
-        <v>999</v>
+        <v>17982</v>
       </c>
       <c r="AG61" s="12"/>
       <c r="AH61" s="12"/>
@@ -4461,13 +4515,13 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -4488,7 +4542,7 @@
         <v>28</v>
       </c>
       <c r="W62" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
@@ -4503,7 +4557,7 @@
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
       <c r="AF62" s="12">
-        <v>999</v>
+        <v>8991</v>
       </c>
       <c r="AG62" s="12"/>
       <c r="AH62" s="12"/>
@@ -4521,13 +4575,13 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
@@ -4548,7 +4602,7 @@
         <v>28</v>
       </c>
       <c r="W63" s="12">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
@@ -4563,7 +4617,7 @@
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
       <c r="AF63" s="12">
-        <v>2997</v>
+        <v>18981</v>
       </c>
       <c r="AG63" s="12"/>
       <c r="AH63" s="12"/>
@@ -4581,13 +4635,13 @@
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
@@ -4641,13 +4695,13 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
@@ -4668,7 +4722,7 @@
         <v>28</v>
       </c>
       <c r="W65" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
@@ -4683,7 +4737,7 @@
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
       <c r="AF65" s="12">
-        <v>4995</v>
+        <v>5994</v>
       </c>
       <c r="AG65" s="12"/>
       <c r="AH65" s="12"/>
@@ -4701,13 +4755,13 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -4728,7 +4782,7 @@
         <v>28</v>
       </c>
       <c r="W66" s="12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
@@ -4743,7 +4797,7 @@
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
       <c r="AF66" s="12">
-        <v>3996</v>
+        <v>13986</v>
       </c>
       <c r="AG66" s="12"/>
       <c r="AH66" s="12"/>
@@ -4761,13 +4815,13 @@
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -4788,7 +4842,7 @@
         <v>28</v>
       </c>
       <c r="W67" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
@@ -4803,7 +4857,7 @@
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
       <c r="AF67" s="12">
-        <v>1998</v>
+        <v>5994</v>
       </c>
       <c r="AG67" s="12"/>
       <c r="AH67" s="12"/>
@@ -4821,13 +4875,13 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -4848,7 +4902,7 @@
         <v>28</v>
       </c>
       <c r="W68" s="12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
@@ -4863,7 +4917,7 @@
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
       <c r="AF68" s="12">
-        <v>18981</v>
+        <v>12987</v>
       </c>
       <c r="AG68" s="12"/>
       <c r="AH68" s="12"/>
@@ -4881,13 +4935,13 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -4908,7 +4962,7 @@
         <v>28</v>
       </c>
       <c r="W69" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -4923,7 +4977,7 @@
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
       <c r="AF69" s="12">
-        <v>1998</v>
+        <v>4995</v>
       </c>
       <c r="AG69" s="12"/>
       <c r="AH69" s="12"/>
@@ -4941,13 +4995,13 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -4968,7 +5022,7 @@
         <v>28</v>
       </c>
       <c r="W70" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
@@ -4983,7 +5037,7 @@
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
       <c r="AF70" s="12">
-        <v>1998</v>
+        <v>4995</v>
       </c>
       <c r="AG70" s="12"/>
       <c r="AH70" s="12"/>
@@ -5001,13 +5055,13 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -5028,7 +5082,7 @@
         <v>28</v>
       </c>
       <c r="W71" s="12">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
@@ -5043,7 +5097,7 @@
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
       <c r="AF71" s="12">
-        <v>58941</v>
+        <v>7992</v>
       </c>
       <c r="AG71" s="12"/>
       <c r="AH71" s="12"/>
@@ -5061,13 +5115,13 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -5088,7 +5142,7 @@
         <v>28</v>
       </c>
       <c r="W72" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
@@ -5103,7 +5157,7 @@
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
       <c r="AF72" s="12">
-        <v>8991</v>
+        <v>10989</v>
       </c>
       <c r="AG72" s="12"/>
       <c r="AH72" s="12"/>
@@ -5121,13 +5175,13 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -5148,7 +5202,7 @@
         <v>28</v>
       </c>
       <c r="W73" s="12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
@@ -5163,7 +5217,7 @@
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
       <c r="AF73" s="12">
-        <v>15984</v>
+        <v>999</v>
       </c>
       <c r="AG73" s="12"/>
       <c r="AH73" s="12"/>
@@ -5181,13 +5235,13 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -5208,7 +5262,7 @@
         <v>28</v>
       </c>
       <c r="W74" s="12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
@@ -5223,7 +5277,7 @@
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
       <c r="AF74" s="12">
-        <v>13986</v>
+        <v>8991</v>
       </c>
       <c r="AG74" s="12"/>
       <c r="AH74" s="12"/>
@@ -5241,13 +5295,13 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -5268,7 +5322,7 @@
         <v>28</v>
       </c>
       <c r="W75" s="12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
@@ -5283,7 +5337,7 @@
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
       <c r="AF75" s="12">
-        <v>4995</v>
+        <v>8991</v>
       </c>
       <c r="AG75" s="12"/>
       <c r="AH75" s="12"/>
@@ -5301,13 +5355,13 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
@@ -5328,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="W76" s="12">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
@@ -5343,7 +5397,7 @@
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
       <c r="AF76" s="12">
-        <v>13986</v>
+        <v>18981</v>
       </c>
       <c r="AG76" s="12"/>
       <c r="AH76" s="12"/>
@@ -5361,13 +5415,13 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -5388,7 +5442,7 @@
         <v>28</v>
       </c>
       <c r="W77" s="12">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
@@ -5403,7 +5457,7 @@
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
       <c r="AF77" s="12">
-        <v>5994</v>
+        <v>18981</v>
       </c>
       <c r="AG77" s="12"/>
       <c r="AH77" s="12"/>
@@ -5421,13 +5475,13 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -5448,7 +5502,7 @@
         <v>28</v>
       </c>
       <c r="W78" s="12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
@@ -5463,7 +5517,7 @@
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
       <c r="AF78" s="12">
-        <v>999</v>
+        <v>16983</v>
       </c>
       <c r="AG78" s="12"/>
       <c r="AH78" s="12"/>
@@ -5481,13 +5535,13 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -5508,7 +5562,7 @@
         <v>28</v>
       </c>
       <c r="W79" s="12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
@@ -5523,7 +5577,7 @@
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
       <c r="AF79" s="12">
-        <v>999</v>
+        <v>16983</v>
       </c>
       <c r="AG79" s="12"/>
       <c r="AH79" s="12"/>
@@ -5541,13 +5595,13 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="12" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -5568,7 +5622,7 @@
         <v>28</v>
       </c>
       <c r="W80" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
@@ -5583,7 +5637,7 @@
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
       <c r="AF80" s="12">
-        <v>1998</v>
+        <v>8991</v>
       </c>
       <c r="AG80" s="12"/>
       <c r="AH80" s="12"/>
@@ -5601,13 +5655,13 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -5628,7 +5682,7 @@
         <v>28</v>
       </c>
       <c r="W81" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
@@ -5643,7 +5697,7 @@
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
       <c r="AF81" s="12">
-        <v>9990</v>
+        <v>8991</v>
       </c>
       <c r="AG81" s="12"/>
       <c r="AH81" s="12"/>
@@ -5661,13 +5715,13 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="12" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -5688,7 +5742,7 @@
         <v>28</v>
       </c>
       <c r="W82" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
@@ -5703,7 +5757,7 @@
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
       <c r="AF82" s="12">
-        <v>5994</v>
+        <v>8991</v>
       </c>
       <c r="AG82" s="12"/>
       <c r="AH82" s="12"/>
@@ -5721,13 +5775,13 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="12" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -5748,7 +5802,7 @@
         <v>28</v>
       </c>
       <c r="W83" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
@@ -5763,7 +5817,7 @@
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
       <c r="AF83" s="12">
-        <v>5994</v>
+        <v>8991</v>
       </c>
       <c r="AG83" s="12"/>
       <c r="AH83" s="12"/>
@@ -5781,13 +5835,13 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="12" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -5808,7 +5862,7 @@
         <v>28</v>
       </c>
       <c r="W84" s="12">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
@@ -5823,7 +5877,7 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
       <c r="AF84" s="12">
-        <v>28971</v>
+        <v>8991</v>
       </c>
       <c r="AG84" s="12"/>
       <c r="AH84" s="12"/>
@@ -5841,13 +5895,13 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="12" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -5868,7 +5922,7 @@
         <v>28</v>
       </c>
       <c r="W85" s="12">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
@@ -5883,7 +5937,7 @@
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
       <c r="AF85" s="12">
-        <v>16983</v>
+        <v>8991</v>
       </c>
       <c r="AG85" s="12"/>
       <c r="AH85" s="12"/>
@@ -5901,13 +5955,13 @@
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="12" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -5928,7 +5982,7 @@
         <v>28</v>
       </c>
       <c r="W86" s="12">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
@@ -5943,7 +5997,7 @@
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
       <c r="AF86" s="12">
-        <v>61938</v>
+        <v>10989</v>
       </c>
       <c r="AG86" s="12"/>
       <c r="AH86" s="12"/>
@@ -5961,13 +6015,13 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="12" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
@@ -5988,7 +6042,7 @@
         <v>28</v>
       </c>
       <c r="W87" s="12">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
@@ -6003,7 +6057,7 @@
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
       <c r="AF87" s="12">
-        <v>36963</v>
+        <v>10989</v>
       </c>
       <c r="AG87" s="12"/>
       <c r="AH87" s="12"/>
@@ -6021,13 +6075,13 @@
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="12" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
@@ -6048,7 +6102,7 @@
         <v>28</v>
       </c>
       <c r="W88" s="12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
@@ -6063,7 +6117,7 @@
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
       <c r="AF88" s="12">
-        <v>22977</v>
+        <v>14985</v>
       </c>
       <c r="AG88" s="12"/>
       <c r="AH88" s="12"/>
@@ -6081,13 +6135,13 @@
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="12" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
@@ -6108,7 +6162,7 @@
         <v>28</v>
       </c>
       <c r="W89" s="12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X89" s="12"/>
       <c r="Y89" s="12"/>
@@ -6123,7 +6177,7 @@
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
       <c r="AF89" s="12">
-        <v>7992</v>
+        <v>12987</v>
       </c>
       <c r="AG89" s="12"/>
       <c r="AH89" s="12"/>
@@ -6141,13 +6195,13 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="12" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -6168,7 +6222,7 @@
         <v>28</v>
       </c>
       <c r="W90" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X90" s="12"/>
       <c r="Y90" s="12"/>
@@ -6183,7 +6237,7 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
       <c r="AF90" s="12">
-        <v>1998</v>
+        <v>999</v>
       </c>
       <c r="AG90" s="12"/>
       <c r="AH90" s="12"/>
@@ -6201,13 +6255,13 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="12" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
@@ -6228,7 +6282,7 @@
         <v>28</v>
       </c>
       <c r="W91" s="12">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
@@ -6243,7 +6297,7 @@
       <c r="AD91" s="12"/>
       <c r="AE91" s="12"/>
       <c r="AF91" s="12">
-        <v>161838</v>
+        <v>1998</v>
       </c>
       <c r="AG91" s="12"/>
       <c r="AH91" s="12"/>
@@ -6261,13 +6315,13 @@
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="12" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -6321,13 +6375,13 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="12" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -6348,7 +6402,7 @@
         <v>28</v>
       </c>
       <c r="W93" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X93" s="12"/>
       <c r="Y93" s="12"/>
@@ -6363,7 +6417,7 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
       <c r="AF93" s="12">
-        <v>7992</v>
+        <v>11988</v>
       </c>
       <c r="AG93" s="12"/>
       <c r="AH93" s="12"/>
@@ -6381,13 +6435,13 @@
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="12" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
@@ -6408,7 +6462,7 @@
         <v>28</v>
       </c>
       <c r="W94" s="12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="X94" s="12"/>
       <c r="Y94" s="12"/>
@@ -6423,7 +6477,7 @@
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
       <c r="AF94" s="12">
-        <v>14985</v>
+        <v>3996</v>
       </c>
       <c r="AG94" s="12"/>
       <c r="AH94" s="12"/>
@@ -6441,13 +6495,13 @@
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="12" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -6468,7 +6522,7 @@
         <v>28</v>
       </c>
       <c r="W95" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
@@ -6483,7 +6537,7 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
       <c r="AF95" s="12">
-        <v>14985</v>
+        <v>1998</v>
       </c>
       <c r="AG95" s="12"/>
       <c r="AH95" s="12"/>
@@ -6501,13 +6555,13 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="12" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -6528,7 +6582,7 @@
         <v>28</v>
       </c>
       <c r="W96" s="12">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
@@ -6543,7 +6597,7 @@
       <c r="AD96" s="12"/>
       <c r="AE96" s="12"/>
       <c r="AF96" s="12">
-        <v>46953</v>
+        <v>999</v>
       </c>
       <c r="AG96" s="12"/>
       <c r="AH96" s="12"/>
@@ -6561,13 +6615,13 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="12" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
@@ -6588,7 +6642,7 @@
         <v>28</v>
       </c>
       <c r="W97" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
@@ -6603,7 +6657,7 @@
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
       <c r="AF97" s="12">
-        <v>15984</v>
+        <v>7992</v>
       </c>
       <c r="AG97" s="12"/>
       <c r="AH97" s="12"/>
@@ -6621,13 +6675,13 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="12" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
@@ -6648,7 +6702,7 @@
         <v>28</v>
       </c>
       <c r="W98" s="12">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
@@ -6663,7 +6717,7 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
       <c r="AF98" s="12">
-        <v>6993</v>
+        <v>17982</v>
       </c>
       <c r="AG98" s="12"/>
       <c r="AH98" s="12"/>
@@ -6681,13 +6735,13 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="12" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -6708,7 +6762,7 @@
         <v>28</v>
       </c>
       <c r="W99" s="12">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
@@ -6723,7 +6777,7 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
       <c r="AF99" s="12">
-        <v>5994</v>
+        <v>17982</v>
       </c>
       <c r="AG99" s="12"/>
       <c r="AH99" s="12"/>
@@ -6741,13 +6795,13 @@
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="12" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
@@ -6768,7 +6822,7 @@
         <v>28</v>
       </c>
       <c r="W100" s="12">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="X100" s="12"/>
       <c r="Y100" s="12"/>
@@ -6783,7 +6837,7 @@
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
       <c r="AF100" s="12">
-        <v>112887</v>
+        <v>3996</v>
       </c>
       <c r="AG100" s="12"/>
       <c r="AH100" s="12"/>
@@ -6801,13 +6855,13 @@
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="12" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
@@ -6828,7 +6882,7 @@
         <v>28</v>
       </c>
       <c r="W101" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
@@ -6843,7 +6897,7 @@
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
       <c r="AF101" s="12">
-        <v>14985</v>
+        <v>4995</v>
       </c>
       <c r="AG101" s="12"/>
       <c r="AH101" s="12"/>
@@ -6861,13 +6915,13 @@
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="12" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -6888,7 +6942,7 @@
         <v>28</v>
       </c>
       <c r="W102" s="12">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="X102" s="12"/>
       <c r="Y102" s="12"/>
@@ -6903,7 +6957,7 @@
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
       <c r="AF102" s="12">
-        <v>18981</v>
+        <v>1998</v>
       </c>
       <c r="AG102" s="12"/>
       <c r="AH102" s="12"/>
@@ -6921,13 +6975,13 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="12" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
@@ -6948,7 +7002,7 @@
         <v>28</v>
       </c>
       <c r="W103" s="12">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
@@ -6963,7 +7017,7 @@
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
       <c r="AF103" s="12">
-        <v>64935</v>
+        <v>4995</v>
       </c>
       <c r="AG103" s="12"/>
       <c r="AH103" s="12"/>
@@ -6981,13 +7035,13 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="12" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
@@ -7008,7 +7062,7 @@
         <v>28</v>
       </c>
       <c r="W104" s="12">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="X104" s="12"/>
       <c r="Y104" s="12"/>
@@ -7023,7 +7077,7 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
       <c r="AF104" s="12">
-        <v>26973</v>
+        <v>999</v>
       </c>
       <c r="AG104" s="12"/>
       <c r="AH104" s="12"/>
@@ -7041,13 +7095,13 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="12" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
@@ -7068,7 +7122,7 @@
         <v>28</v>
       </c>
       <c r="W105" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X105" s="12"/>
       <c r="Y105" s="12"/>
@@ -7083,7 +7137,7 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
       <c r="AF105" s="12">
-        <v>12987</v>
+        <v>5994</v>
       </c>
       <c r="AG105" s="12"/>
       <c r="AH105" s="12"/>
@@ -7101,13 +7155,13 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="12" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
@@ -7128,7 +7182,7 @@
         <v>28</v>
       </c>
       <c r="W106" s="12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
@@ -7143,7 +7197,7 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
       <c r="AF106" s="12">
-        <v>8991</v>
+        <v>11988</v>
       </c>
       <c r="AG106" s="12"/>
       <c r="AH106" s="12"/>
@@ -7161,13 +7215,13 @@
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="12" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
@@ -7221,13 +7275,13 @@
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="12" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -7248,7 +7302,7 @@
         <v>28</v>
       </c>
       <c r="W108" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
@@ -7263,7 +7317,7 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
       <c r="AF108" s="12">
-        <v>999</v>
+        <v>9990</v>
       </c>
       <c r="AG108" s="12"/>
       <c r="AH108" s="12"/>
@@ -7281,13 +7335,13 @@
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="12" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
@@ -7341,13 +7395,13 @@
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="12" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
@@ -7368,7 +7422,7 @@
         <v>28</v>
       </c>
       <c r="W110" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X110" s="12"/>
       <c r="Y110" s="12"/>
@@ -7383,7 +7437,7 @@
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
       <c r="AF110" s="12">
-        <v>4995</v>
+        <v>999</v>
       </c>
       <c r="AG110" s="12"/>
       <c r="AH110" s="12"/>
@@ -7401,13 +7455,13 @@
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="12" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
@@ -7428,7 +7482,7 @@
         <v>28</v>
       </c>
       <c r="W111" s="12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
@@ -7443,7 +7497,7 @@
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
       <c r="AF111" s="12">
-        <v>7992</v>
+        <v>14985</v>
       </c>
       <c r="AG111" s="12"/>
       <c r="AH111" s="12"/>
@@ -7461,13 +7515,13 @@
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="12" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
@@ -7488,7 +7542,7 @@
         <v>28</v>
       </c>
       <c r="W112" s="12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
@@ -7503,7 +7557,7 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
       <c r="AF112" s="12">
-        <v>1998</v>
+        <v>13986</v>
       </c>
       <c r="AG112" s="12"/>
       <c r="AH112" s="12"/>
@@ -7521,13 +7575,13 @@
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="12" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
@@ -7548,7 +7602,7 @@
         <v>28</v>
       </c>
       <c r="W113" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X113" s="12"/>
       <c r="Y113" s="12"/>
@@ -7563,7 +7617,7 @@
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
       <c r="AF113" s="12">
-        <v>1998</v>
+        <v>7992</v>
       </c>
       <c r="AG113" s="12"/>
       <c r="AH113" s="12"/>
@@ -7581,13 +7635,13 @@
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="12" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
@@ -7641,13 +7695,13 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="12" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
@@ -7668,7 +7722,7 @@
         <v>28</v>
       </c>
       <c r="W115" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
@@ -7683,7 +7737,7 @@
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
       <c r="AF115" s="12">
-        <v>1998</v>
+        <v>3996</v>
       </c>
       <c r="AG115" s="12"/>
       <c r="AH115" s="12"/>
@@ -7701,13 +7755,13 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="12" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -7728,7 +7782,7 @@
         <v>28</v>
       </c>
       <c r="W116" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
@@ -7743,7 +7797,7 @@
       <c r="AD116" s="12"/>
       <c r="AE116" s="12"/>
       <c r="AF116" s="12">
-        <v>2997</v>
+        <v>1998</v>
       </c>
       <c r="AG116" s="12"/>
       <c r="AH116" s="12"/>
@@ -7761,13 +7815,13 @@
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="12" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -7788,7 +7842,7 @@
         <v>28</v>
       </c>
       <c r="W117" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X117" s="12"/>
       <c r="Y117" s="12"/>
@@ -7803,7 +7857,7 @@
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
       <c r="AF117" s="12">
-        <v>1998</v>
+        <v>999</v>
       </c>
       <c r="AG117" s="12"/>
       <c r="AH117" s="12"/>
@@ -7821,13 +7875,13 @@
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="12" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
@@ -7848,7 +7902,7 @@
         <v>28</v>
       </c>
       <c r="W118" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X118" s="12"/>
       <c r="Y118" s="12"/>
@@ -7863,7 +7917,7 @@
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
       <c r="AF118" s="12">
-        <v>999</v>
+        <v>1998</v>
       </c>
       <c r="AG118" s="12"/>
       <c r="AH118" s="12"/>
@@ -7881,13 +7935,13 @@
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="12" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
@@ -7908,7 +7962,7 @@
         <v>28</v>
       </c>
       <c r="W119" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
@@ -7923,7 +7977,7 @@
       <c r="AD119" s="12"/>
       <c r="AE119" s="12"/>
       <c r="AF119" s="12">
-        <v>11988</v>
+        <v>999</v>
       </c>
       <c r="AG119" s="12"/>
       <c r="AH119" s="12"/>
@@ -7941,13 +7995,13 @@
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="12" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
@@ -7968,7 +8022,7 @@
         <v>28</v>
       </c>
       <c r="W120" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X120" s="12"/>
       <c r="Y120" s="12"/>
@@ -7983,7 +8037,7 @@
       <c r="AD120" s="12"/>
       <c r="AE120" s="12"/>
       <c r="AF120" s="12">
-        <v>999</v>
+        <v>6993</v>
       </c>
       <c r="AG120" s="12"/>
       <c r="AH120" s="12"/>
@@ -8001,13 +8055,13 @@
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="12" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
@@ -8028,7 +8082,7 @@
         <v>28</v>
       </c>
       <c r="W121" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
@@ -8043,7 +8097,7 @@
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
       <c r="AF121" s="12">
-        <v>999</v>
+        <v>3996</v>
       </c>
       <c r="AG121" s="12"/>
       <c r="AH121" s="12"/>
@@ -8061,13 +8115,13 @@
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="12" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
@@ -8088,7 +8142,7 @@
         <v>28</v>
       </c>
       <c r="W122" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
@@ -8103,7 +8157,7 @@
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
       <c r="AF122" s="12">
-        <v>7992</v>
+        <v>2997</v>
       </c>
       <c r="AG122" s="12"/>
       <c r="AH122" s="12"/>
@@ -8121,13 +8175,13 @@
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
@@ -8148,7 +8202,7 @@
         <v>28</v>
       </c>
       <c r="W123" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
@@ -8163,7 +8217,7 @@
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
       <c r="AF123" s="12">
-        <v>12987</v>
+        <v>1998</v>
       </c>
       <c r="AG123" s="12"/>
       <c r="AH123" s="12"/>
@@ -8181,13 +8235,13 @@
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="12"/>
@@ -8208,7 +8262,7 @@
         <v>28</v>
       </c>
       <c r="W124" s="12">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="X124" s="12"/>
       <c r="Y124" s="12"/>
@@ -8223,7 +8277,7 @@
       <c r="AD124" s="12"/>
       <c r="AE124" s="12"/>
       <c r="AF124" s="12">
-        <v>13986</v>
+        <v>1998</v>
       </c>
       <c r="AG124" s="12"/>
       <c r="AH124" s="12"/>
@@ -8241,13 +8295,13 @@
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="12" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
@@ -8268,7 +8322,7 @@
         <v>28</v>
       </c>
       <c r="W125" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X125" s="12"/>
       <c r="Y125" s="12"/>
@@ -8283,7 +8337,7 @@
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
       <c r="AF125" s="12">
-        <v>999</v>
+        <v>5994</v>
       </c>
       <c r="AG125" s="12"/>
       <c r="AH125" s="12"/>
@@ -8301,13 +8355,13 @@
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="12" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
@@ -8361,13 +8415,13 @@
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="12" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
@@ -8388,7 +8442,7 @@
         <v>28</v>
       </c>
       <c r="W127" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
@@ -8403,7 +8457,7 @@
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
       <c r="AF127" s="12">
-        <v>1998</v>
+        <v>999</v>
       </c>
       <c r="AG127" s="12"/>
       <c r="AH127" s="12"/>
@@ -8421,13 +8475,13 @@
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="12" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
@@ -8448,7 +8502,7 @@
         <v>28</v>
       </c>
       <c r="W128" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X128" s="12"/>
       <c r="Y128" s="12"/>
@@ -8463,7 +8517,7 @@
       <c r="AD128" s="12"/>
       <c r="AE128" s="12"/>
       <c r="AF128" s="12">
-        <v>5994</v>
+        <v>1998</v>
       </c>
       <c r="AG128" s="12"/>
       <c r="AH128" s="12"/>
@@ -8481,13 +8535,13 @@
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="12" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
@@ -8508,7 +8562,7 @@
         <v>28</v>
       </c>
       <c r="W129" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X129" s="12"/>
       <c r="Y129" s="12"/>
@@ -8523,7 +8577,7 @@
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
       <c r="AF129" s="12">
-        <v>3996</v>
+        <v>1998</v>
       </c>
       <c r="AG129" s="12"/>
       <c r="AH129" s="12"/>
@@ -8541,13 +8595,13 @@
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="12" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
@@ -8568,7 +8622,7 @@
         <v>28</v>
       </c>
       <c r="W130" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X130" s="12"/>
       <c r="Y130" s="12"/>
@@ -8583,7 +8637,7 @@
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
       <c r="AF130" s="12">
-        <v>1998</v>
+        <v>3996</v>
       </c>
       <c r="AG130" s="12"/>
       <c r="AH130" s="12"/>
@@ -8596,285 +8650,1845 @@
       <c r="AM130" s="5"/>
     </row>
     <row r="131" ht="11.3" customHeight="true">
-      <c r="B131" s="9">
+      <c r="B131" s="4">
         <v>116</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="3" t="s">
+      <c r="C131" s="4"/>
+      <c r="D131" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V131" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W131" s="12">
+        <v>6</v>
+      </c>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC131" s="12"/>
+      <c r="AD131" s="12"/>
+      <c r="AE131" s="12"/>
+      <c r="AF131" s="12">
+        <v>5994</v>
+      </c>
+      <c r="AG131" s="12"/>
+      <c r="AH131" s="12"/>
+      <c r="AI131" s="12"/>
+      <c r="AJ131" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="5"/>
+    </row>
+    <row r="132" ht="11.3" customHeight="true">
+      <c r="B132" s="4">
+        <v>117</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="12"/>
+      <c r="U132" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V132" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W132" s="12">
+        <v>4</v>
+      </c>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC132" s="12"/>
+      <c r="AD132" s="12"/>
+      <c r="AE132" s="12"/>
+      <c r="AF132" s="12">
+        <v>3996</v>
+      </c>
+      <c r="AG132" s="12"/>
+      <c r="AH132" s="12"/>
+      <c r="AI132" s="12"/>
+      <c r="AJ132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK132" s="5"/>
+      <c r="AL132" s="5"/>
+      <c r="AM132" s="5"/>
+    </row>
+    <row r="133" ht="11.3" customHeight="true">
+      <c r="B133" s="4">
+        <v>118</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V133" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W133" s="12">
+        <v>3</v>
+      </c>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA133" s="12"/>
+      <c r="AB133" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC133" s="12"/>
+      <c r="AD133" s="12"/>
+      <c r="AE133" s="12"/>
+      <c r="AF133" s="12">
+        <v>2997</v>
+      </c>
+      <c r="AG133" s="12"/>
+      <c r="AH133" s="12"/>
+      <c r="AI133" s="12"/>
+      <c r="AJ133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK133" s="5"/>
+      <c r="AL133" s="5"/>
+      <c r="AM133" s="5"/>
+    </row>
+    <row r="134" ht="11.3" customHeight="true">
+      <c r="B134" s="4">
+        <v>119</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V134" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W134" s="12">
+        <v>3</v>
+      </c>
+      <c r="X134" s="12"/>
+      <c r="Y134" s="12"/>
+      <c r="Z134" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA134" s="12"/>
+      <c r="AB134" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC134" s="12"/>
+      <c r="AD134" s="12"/>
+      <c r="AE134" s="12"/>
+      <c r="AF134" s="12">
+        <v>2997</v>
+      </c>
+      <c r="AG134" s="12"/>
+      <c r="AH134" s="12"/>
+      <c r="AI134" s="12"/>
+      <c r="AJ134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="5"/>
+    </row>
+    <row r="135" ht="11.3" customHeight="true">
+      <c r="B135" s="4">
+        <v>120</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V135" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W135" s="12">
+        <v>3</v>
+      </c>
+      <c r="X135" s="12"/>
+      <c r="Y135" s="12"/>
+      <c r="Z135" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA135" s="12"/>
+      <c r="AB135" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC135" s="12"/>
+      <c r="AD135" s="12"/>
+      <c r="AE135" s="12"/>
+      <c r="AF135" s="12">
+        <v>2997</v>
+      </c>
+      <c r="AG135" s="12"/>
+      <c r="AH135" s="12"/>
+      <c r="AI135" s="12"/>
+      <c r="AJ135" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK135" s="5"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="5"/>
+    </row>
+    <row r="136" ht="11.3" customHeight="true">
+      <c r="B136" s="4">
+        <v>121</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V136" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W136" s="12">
+        <v>2</v>
+      </c>
+      <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
+      <c r="Z136" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA136" s="12"/>
+      <c r="AB136" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC136" s="12"/>
+      <c r="AD136" s="12"/>
+      <c r="AE136" s="12"/>
+      <c r="AF136" s="12">
+        <v>1998</v>
+      </c>
+      <c r="AG136" s="12"/>
+      <c r="AH136" s="12"/>
+      <c r="AI136" s="12"/>
+      <c r="AJ136" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="5"/>
+    </row>
+    <row r="137" ht="11.3" customHeight="true">
+      <c r="B137" s="4">
+        <v>122</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="U137" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V137" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W137" s="12">
+        <v>2</v>
+      </c>
+      <c r="X137" s="12"/>
+      <c r="Y137" s="12"/>
+      <c r="Z137" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA137" s="12"/>
+      <c r="AB137" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC137" s="12"/>
+      <c r="AD137" s="12"/>
+      <c r="AE137" s="12"/>
+      <c r="AF137" s="12">
+        <v>1998</v>
+      </c>
+      <c r="AG137" s="12"/>
+      <c r="AH137" s="12"/>
+      <c r="AI137" s="12"/>
+      <c r="AJ137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="5"/>
+    </row>
+    <row r="138" ht="11.3" customHeight="true">
+      <c r="B138" s="4">
+        <v>123</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="12"/>
+      <c r="U138" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V138" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W138" s="12">
+        <v>5</v>
+      </c>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
+      <c r="Z138" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA138" s="12"/>
+      <c r="AB138" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC138" s="12"/>
+      <c r="AD138" s="12"/>
+      <c r="AE138" s="12"/>
+      <c r="AF138" s="12">
+        <v>4995</v>
+      </c>
+      <c r="AG138" s="12"/>
+      <c r="AH138" s="12"/>
+      <c r="AI138" s="12"/>
+      <c r="AJ138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK138" s="5"/>
+      <c r="AL138" s="5"/>
+      <c r="AM138" s="5"/>
+    </row>
+    <row r="139" ht="11.3" customHeight="true">
+      <c r="B139" s="4">
+        <v>124</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V139" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W139" s="12">
+        <v>5</v>
+      </c>
+      <c r="X139" s="12"/>
+      <c r="Y139" s="12"/>
+      <c r="Z139" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA139" s="12"/>
+      <c r="AB139" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC139" s="12"/>
+      <c r="AD139" s="12"/>
+      <c r="AE139" s="12"/>
+      <c r="AF139" s="12">
+        <v>4995</v>
+      </c>
+      <c r="AG139" s="12"/>
+      <c r="AH139" s="12"/>
+      <c r="AI139" s="12"/>
+      <c r="AJ139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK139" s="5"/>
+      <c r="AL139" s="5"/>
+      <c r="AM139" s="5"/>
+    </row>
+    <row r="140" ht="11.3" customHeight="true">
+      <c r="B140" s="4">
+        <v>125</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="12"/>
+      <c r="U140" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V140" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W140" s="12">
+        <v>2</v>
+      </c>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12"/>
+      <c r="Z140" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA140" s="12"/>
+      <c r="AB140" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC140" s="12"/>
+      <c r="AD140" s="12"/>
+      <c r="AE140" s="12"/>
+      <c r="AF140" s="12">
+        <v>1998</v>
+      </c>
+      <c r="AG140" s="12"/>
+      <c r="AH140" s="12"/>
+      <c r="AI140" s="12"/>
+      <c r="AJ140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK140" s="5"/>
+      <c r="AL140" s="5"/>
+      <c r="AM140" s="5"/>
+    </row>
+    <row r="141" ht="11.3" customHeight="true">
+      <c r="B141" s="4">
+        <v>126</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V141" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W141" s="12">
+        <v>2</v>
+      </c>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+      <c r="Z141" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA141" s="12"/>
+      <c r="AB141" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC141" s="12"/>
+      <c r="AD141" s="12"/>
+      <c r="AE141" s="12"/>
+      <c r="AF141" s="12">
+        <v>1998</v>
+      </c>
+      <c r="AG141" s="12"/>
+      <c r="AH141" s="12"/>
+      <c r="AI141" s="12"/>
+      <c r="AJ141" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK141" s="5"/>
+      <c r="AL141" s="5"/>
+      <c r="AM141" s="5"/>
+    </row>
+    <row r="142" ht="11.3" customHeight="true">
+      <c r="B142" s="4">
+        <v>127</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V142" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W142" s="12">
+        <v>5</v>
+      </c>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+      <c r="Z142" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA142" s="12"/>
+      <c r="AB142" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC142" s="12"/>
+      <c r="AD142" s="12"/>
+      <c r="AE142" s="12"/>
+      <c r="AF142" s="12">
+        <v>4995</v>
+      </c>
+      <c r="AG142" s="12"/>
+      <c r="AH142" s="12"/>
+      <c r="AI142" s="12"/>
+      <c r="AJ142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+    </row>
+    <row r="143" ht="11.3" customHeight="true">
+      <c r="B143" s="4">
+        <v>128</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V143" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W143" s="12">
+        <v>5</v>
+      </c>
+      <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC143" s="12"/>
+      <c r="AD143" s="12"/>
+      <c r="AE143" s="12"/>
+      <c r="AF143" s="12">
+        <v>4995</v>
+      </c>
+      <c r="AG143" s="12"/>
+      <c r="AH143" s="12"/>
+      <c r="AI143" s="12"/>
+      <c r="AJ143" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+    </row>
+    <row r="144" ht="11.3" customHeight="true">
+      <c r="B144" s="4">
+        <v>129</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V144" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W144" s="12">
+        <v>6</v>
+      </c>
+      <c r="X144" s="12"/>
+      <c r="Y144" s="12"/>
+      <c r="Z144" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA144" s="12"/>
+      <c r="AB144" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC144" s="12"/>
+      <c r="AD144" s="12"/>
+      <c r="AE144" s="12"/>
+      <c r="AF144" s="12">
+        <v>5994</v>
+      </c>
+      <c r="AG144" s="12"/>
+      <c r="AH144" s="12"/>
+      <c r="AI144" s="12"/>
+      <c r="AJ144" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+    </row>
+    <row r="145" ht="11.3" customHeight="true">
+      <c r="B145" s="4">
+        <v>130</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V145" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W145" s="12">
+        <v>5</v>
+      </c>
+      <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA145" s="12"/>
+      <c r="AB145" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC145" s="12"/>
+      <c r="AD145" s="12"/>
+      <c r="AE145" s="12"/>
+      <c r="AF145" s="12">
+        <v>4995</v>
+      </c>
+      <c r="AG145" s="12"/>
+      <c r="AH145" s="12"/>
+      <c r="AI145" s="12"/>
+      <c r="AJ145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="5"/>
+    </row>
+    <row r="146" ht="11.3" customHeight="true">
+      <c r="B146" s="4">
+        <v>131</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V146" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W146" s="12">
+        <v>20</v>
+      </c>
+      <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
+      <c r="Z146" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA146" s="12"/>
+      <c r="AB146" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC146" s="12"/>
+      <c r="AD146" s="12"/>
+      <c r="AE146" s="12"/>
+      <c r="AF146" s="12">
+        <v>19980</v>
+      </c>
+      <c r="AG146" s="12"/>
+      <c r="AH146" s="12"/>
+      <c r="AI146" s="12"/>
+      <c r="AJ146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="5"/>
+    </row>
+    <row r="147" ht="11.3" customHeight="true">
+      <c r="B147" s="4">
+        <v>132</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V147" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W147" s="12">
+        <v>1</v>
+      </c>
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA147" s="12"/>
+      <c r="AB147" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC147" s="12"/>
+      <c r="AD147" s="12"/>
+      <c r="AE147" s="12"/>
+      <c r="AF147" s="12">
+        <v>999</v>
+      </c>
+      <c r="AG147" s="12"/>
+      <c r="AH147" s="12"/>
+      <c r="AI147" s="12"/>
+      <c r="AJ147" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="5"/>
+    </row>
+    <row r="148" ht="11.3" customHeight="true">
+      <c r="B148" s="4">
+        <v>133</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3" t="s">
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-      <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
-      <c r="U131" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V131" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W131" s="3">
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V148" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W148" s="12">
+        <v>8</v>
+      </c>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA148" s="12"/>
+      <c r="AB148" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC148" s="12"/>
+      <c r="AD148" s="12"/>
+      <c r="AE148" s="12"/>
+      <c r="AF148" s="12">
+        <v>7992</v>
+      </c>
+      <c r="AG148" s="12"/>
+      <c r="AH148" s="12"/>
+      <c r="AI148" s="12"/>
+      <c r="AJ148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="5"/>
+    </row>
+    <row r="149" ht="11.3" customHeight="true">
+      <c r="B149" s="4">
+        <v>134</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V149" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W149" s="12">
+        <v>1</v>
+      </c>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA149" s="12"/>
+      <c r="AB149" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC149" s="12"/>
+      <c r="AD149" s="12"/>
+      <c r="AE149" s="12"/>
+      <c r="AF149" s="12">
+        <v>999</v>
+      </c>
+      <c r="AG149" s="12"/>
+      <c r="AH149" s="12"/>
+      <c r="AI149" s="12"/>
+      <c r="AJ149" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK149" s="5"/>
+      <c r="AL149" s="5"/>
+      <c r="AM149" s="5"/>
+    </row>
+    <row r="150" ht="11.3" customHeight="true">
+      <c r="B150" s="4">
+        <v>135</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="12"/>
+      <c r="U150" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V150" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W150" s="12">
         <v>3</v>
       </c>
-      <c r="X131" s="3"/>
-      <c r="Y131" s="3"/>
-      <c r="Z131" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA131" s="3"/>
-      <c r="AB131" s="3">
-        <v>999</v>
-      </c>
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-      <c r="AF131" s="3">
+      <c r="X150" s="12"/>
+      <c r="Y150" s="12"/>
+      <c r="Z150" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA150" s="12"/>
+      <c r="AB150" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC150" s="12"/>
+      <c r="AD150" s="12"/>
+      <c r="AE150" s="12"/>
+      <c r="AF150" s="12">
         <v>2997</v>
       </c>
-      <c r="AG131" s="3"/>
-      <c r="AH131" s="3"/>
-      <c r="AI131" s="3"/>
-      <c r="AJ131" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK131" s="10"/>
-      <c r="AL131" s="10"/>
-      <c r="AM131" s="10"/>
-    </row>
-    <row r="132" ht="6.8" customHeight="true"/>
-    <row r="133">
-      <c r="AB133" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC133" s="13"/>
-      <c r="AD133" s="13"/>
-      <c r="AE133" s="13"/>
-      <c r="AF133" s="13">
-        <v>1290708</v>
-      </c>
-      <c r="AG133" s="13"/>
-      <c r="AH133" s="13"/>
-      <c r="AI133" s="13"/>
-    </row>
-    <row r="134">
-      <c r="AB134" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC134" s="13"/>
-      <c r="AD134" s="13"/>
-      <c r="AE134" s="13"/>
-      <c r="AF134" s="13">
-        <v>154884.96</v>
-      </c>
-      <c r="AG134" s="13"/>
-      <c r="AH134" s="13"/>
-      <c r="AI134" s="13"/>
-    </row>
-    <row r="135" ht="6.8" customHeight="true"/>
-    <row r="136">
-      <c r="B136" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
-      <c r="O136" s="14"/>
-      <c r="P136" s="14"/>
-      <c r="Q136" s="14"/>
-      <c r="R136" s="14"/>
-      <c r="S136" s="14"/>
-      <c r="T136" s="14"/>
-      <c r="U136" s="14"/>
-      <c r="V136" s="14"/>
-      <c r="W136" s="14"/>
-      <c r="X136" s="14"/>
-      <c r="Y136" s="14"/>
-      <c r="Z136" s="14"/>
-      <c r="AA136" s="14"/>
-      <c r="AB136" s="14"/>
-      <c r="AC136" s="14"/>
-      <c r="AD136" s="14"/>
-      <c r="AE136" s="14"/>
-      <c r="AF136" s="14"/>
-      <c r="AG136" s="14"/>
-      <c r="AH136" s="14"/>
-    </row>
-    <row r="137">
-      <c r="B137" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="14"/>
-      <c r="O137" s="14"/>
-      <c r="P137" s="14"/>
-      <c r="Q137" s="14"/>
-      <c r="R137" s="14"/>
-      <c r="S137" s="14"/>
-      <c r="T137" s="14"/>
-      <c r="U137" s="14"/>
-      <c r="V137" s="14"/>
-      <c r="W137" s="14"/>
-      <c r="X137" s="14"/>
-      <c r="Y137" s="14"/>
-      <c r="Z137" s="14"/>
-      <c r="AA137" s="14"/>
-      <c r="AB137" s="14"/>
-      <c r="AC137" s="14"/>
-      <c r="AD137" s="14"/>
-      <c r="AE137" s="14"/>
-      <c r="AF137" s="14"/>
-      <c r="AG137" s="14"/>
-      <c r="AH137" s="14"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="13" t="s">
+      <c r="AG150" s="12"/>
+      <c r="AH150" s="12"/>
+      <c r="AI150" s="12"/>
+      <c r="AJ150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="5"/>
+    </row>
+    <row r="151" ht="11.3" customHeight="true">
+      <c r="B151" s="4">
+        <v>136</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
-      <c r="O138" s="13"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="13"/>
-      <c r="R138" s="13"/>
-      <c r="S138" s="13"/>
-      <c r="T138" s="13"/>
-      <c r="U138" s="13"/>
-      <c r="V138" s="13"/>
-      <c r="W138" s="13"/>
-      <c r="X138" s="13"/>
-      <c r="Y138" s="13"/>
-      <c r="Z138" s="13"/>
-      <c r="AA138" s="13"/>
-      <c r="AB138" s="13"/>
-      <c r="AC138" s="13"/>
-      <c r="AD138" s="13"/>
-      <c r="AE138" s="13"/>
-      <c r="AF138" s="13"/>
-      <c r="AG138" s="13"/>
-      <c r="AH138" s="13"/>
-    </row>
-    <row r="139" ht="6.8" customHeight="true">
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="6"/>
-      <c r="W139" s="6"/>
-      <c r="X139" s="6"/>
-      <c r="Y139" s="6"/>
-      <c r="Z139" s="6"/>
-      <c r="AA139" s="6"/>
-      <c r="AB139" s="6"/>
-      <c r="AC139" s="6"/>
-      <c r="AD139" s="6"/>
-      <c r="AE139" s="6"/>
-      <c r="AF139" s="6"/>
-      <c r="AG139" s="6"/>
-      <c r="AH139" s="6"/>
-      <c r="AI139" s="6"/>
-      <c r="AJ139" s="6"/>
-      <c r="AK139" s="6"/>
-      <c r="AL139" s="6"/>
-      <c r="AM139" s="6"/>
-    </row>
-    <row r="140"/>
-    <row r="141">
-      <c r="B141" s="13" t="s">
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="J141" s="14" t="s">
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="12"/>
+      <c r="U151" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V151" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W151" s="12">
+        <v>3</v>
+      </c>
+      <c r="X151" s="12"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA151" s="12"/>
+      <c r="AB151" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC151" s="12"/>
+      <c r="AD151" s="12"/>
+      <c r="AE151" s="12"/>
+      <c r="AF151" s="12">
+        <v>2997</v>
+      </c>
+      <c r="AG151" s="12"/>
+      <c r="AH151" s="12"/>
+      <c r="AI151" s="12"/>
+      <c r="AJ151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK151" s="5"/>
+      <c r="AL151" s="5"/>
+      <c r="AM151" s="5"/>
+    </row>
+    <row r="152" ht="11.3" customHeight="true">
+      <c r="B152" s="4">
+        <v>137</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14"/>
-      <c r="N141" s="14"/>
-      <c r="O141" s="14"/>
-      <c r="P141" s="14"/>
-    </row>
-    <row r="142">
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="11"/>
-      <c r="P142" s="11"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V152" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W152" s="12">
+        <v>3</v>
+      </c>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC152" s="12"/>
+      <c r="AD152" s="12"/>
+      <c r="AE152" s="12"/>
+      <c r="AF152" s="12">
+        <v>2997</v>
+      </c>
+      <c r="AG152" s="12"/>
+      <c r="AH152" s="12"/>
+      <c r="AI152" s="12"/>
+      <c r="AJ152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5"/>
+      <c r="AM152" s="5"/>
+    </row>
+    <row r="153" ht="11.3" customHeight="true">
+      <c r="B153" s="4">
+        <v>138</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V153" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W153" s="12">
+        <v>2</v>
+      </c>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC153" s="12"/>
+      <c r="AD153" s="12"/>
+      <c r="AE153" s="12"/>
+      <c r="AF153" s="12">
+        <v>1998</v>
+      </c>
+      <c r="AG153" s="12"/>
+      <c r="AH153" s="12"/>
+      <c r="AI153" s="12"/>
+      <c r="AJ153" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK153" s="5"/>
+      <c r="AL153" s="5"/>
+      <c r="AM153" s="5"/>
+    </row>
+    <row r="154" ht="11.3" customHeight="true">
+      <c r="B154" s="4">
+        <v>139</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V154" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W154" s="12">
+        <v>5</v>
+      </c>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA154" s="12"/>
+      <c r="AB154" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC154" s="12"/>
+      <c r="AD154" s="12"/>
+      <c r="AE154" s="12"/>
+      <c r="AF154" s="12">
+        <v>4995</v>
+      </c>
+      <c r="AG154" s="12"/>
+      <c r="AH154" s="12"/>
+      <c r="AI154" s="12"/>
+      <c r="AJ154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK154" s="5"/>
+      <c r="AL154" s="5"/>
+      <c r="AM154" s="5"/>
+    </row>
+    <row r="155" ht="11.3" customHeight="true">
+      <c r="B155" s="4">
+        <v>140</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V155" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W155" s="12">
+        <v>1</v>
+      </c>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA155" s="12"/>
+      <c r="AB155" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC155" s="12"/>
+      <c r="AD155" s="12"/>
+      <c r="AE155" s="12"/>
+      <c r="AF155" s="12">
+        <v>999</v>
+      </c>
+      <c r="AG155" s="12"/>
+      <c r="AH155" s="12"/>
+      <c r="AI155" s="12"/>
+      <c r="AJ155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK155" s="5"/>
+      <c r="AL155" s="5"/>
+      <c r="AM155" s="5"/>
+    </row>
+    <row r="156" ht="11.3" customHeight="true">
+      <c r="B156" s="4">
+        <v>141</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
+      <c r="U156" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V156" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W156" s="12">
+        <v>2</v>
+      </c>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA156" s="12"/>
+      <c r="AB156" s="12">
+        <v>999</v>
+      </c>
+      <c r="AC156" s="12"/>
+      <c r="AD156" s="12"/>
+      <c r="AE156" s="12"/>
+      <c r="AF156" s="12">
+        <v>1998</v>
+      </c>
+      <c r="AG156" s="12"/>
+      <c r="AH156" s="12"/>
+      <c r="AI156" s="12"/>
+      <c r="AJ156" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK156" s="5"/>
+      <c r="AL156" s="5"/>
+      <c r="AM156" s="5"/>
+    </row>
+    <row r="157" ht="11.3" customHeight="true">
+      <c r="B157" s="9">
+        <v>142</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V157" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W157" s="3">
+        <v>2</v>
+      </c>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+      <c r="Z157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA157" s="3"/>
+      <c r="AB157" s="3">
+        <v>999</v>
+      </c>
+      <c r="AC157" s="3"/>
+      <c r="AD157" s="3"/>
+      <c r="AE157" s="3"/>
+      <c r="AF157" s="3">
+        <v>1998</v>
+      </c>
+      <c r="AG157" s="3"/>
+      <c r="AH157" s="3"/>
+      <c r="AI157" s="3"/>
+      <c r="AJ157" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK157" s="10"/>
+      <c r="AL157" s="10"/>
+      <c r="AM157" s="10"/>
+    </row>
+    <row r="158" ht="6.8" customHeight="true"/>
+    <row r="159">
+      <c r="AB159" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC159" s="13"/>
+      <c r="AD159" s="13"/>
+      <c r="AE159" s="13"/>
+      <c r="AF159" s="13">
+        <v>1947051</v>
+      </c>
+      <c r="AG159" s="13"/>
+      <c r="AH159" s="13"/>
+      <c r="AI159" s="13"/>
+    </row>
+    <row r="160">
+      <c r="AB160" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC160" s="13"/>
+      <c r="AD160" s="13"/>
+      <c r="AE160" s="13"/>
+      <c r="AF160" s="13">
+        <v>233646.12</v>
+      </c>
+      <c r="AG160" s="13"/>
+      <c r="AH160" s="13"/>
+      <c r="AI160" s="13"/>
+    </row>
+    <row r="161" ht="6.8" customHeight="true"/>
+    <row r="162">
+      <c r="B162" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="14"/>
+      <c r="O162" s="14"/>
+      <c r="P162" s="14"/>
+      <c r="Q162" s="14"/>
+      <c r="R162" s="14"/>
+      <c r="S162" s="14"/>
+      <c r="T162" s="14"/>
+      <c r="U162" s="14"/>
+      <c r="V162" s="14"/>
+      <c r="W162" s="14"/>
+      <c r="X162" s="14"/>
+      <c r="Y162" s="14"/>
+      <c r="Z162" s="14"/>
+      <c r="AA162" s="14"/>
+      <c r="AB162" s="14"/>
+      <c r="AC162" s="14"/>
+      <c r="AD162" s="14"/>
+      <c r="AE162" s="14"/>
+      <c r="AF162" s="14"/>
+      <c r="AG162" s="14"/>
+      <c r="AH162" s="14"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+      <c r="R163" s="14"/>
+      <c r="S163" s="14"/>
+      <c r="T163" s="14"/>
+      <c r="U163" s="14"/>
+      <c r="V163" s="14"/>
+      <c r="W163" s="14"/>
+      <c r="X163" s="14"/>
+      <c r="Y163" s="14"/>
+      <c r="Z163" s="14"/>
+      <c r="AA163" s="14"/>
+      <c r="AB163" s="14"/>
+      <c r="AC163" s="14"/>
+      <c r="AD163" s="14"/>
+      <c r="AE163" s="14"/>
+      <c r="AF163" s="14"/>
+      <c r="AG163" s="14"/>
+      <c r="AH163" s="14"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
+      <c r="M164" s="13"/>
+      <c r="N164" s="13"/>
+      <c r="O164" s="13"/>
+      <c r="P164" s="13"/>
+      <c r="Q164" s="13"/>
+      <c r="R164" s="13"/>
+      <c r="S164" s="13"/>
+      <c r="T164" s="13"/>
+      <c r="U164" s="13"/>
+      <c r="V164" s="13"/>
+      <c r="W164" s="13"/>
+      <c r="X164" s="13"/>
+      <c r="Y164" s="13"/>
+      <c r="Z164" s="13"/>
+      <c r="AA164" s="13"/>
+      <c r="AB164" s="13"/>
+      <c r="AC164" s="13"/>
+      <c r="AD164" s="13"/>
+      <c r="AE164" s="13"/>
+      <c r="AF164" s="13"/>
+      <c r="AG164" s="13"/>
+      <c r="AH164" s="13"/>
+    </row>
+    <row r="165" ht="6.8" customHeight="true">
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="6"/>
+      <c r="X165" s="6"/>
+      <c r="Y165" s="6"/>
+      <c r="Z165" s="6"/>
+      <c r="AA165" s="6"/>
+      <c r="AB165" s="6"/>
+      <c r="AC165" s="6"/>
+      <c r="AD165" s="6"/>
+      <c r="AE165" s="6"/>
+      <c r="AF165" s="6"/>
+      <c r="AG165" s="6"/>
+      <c r="AH165" s="6"/>
+      <c r="AI165" s="6"/>
+      <c r="AJ165" s="6"/>
+      <c r="AK165" s="6"/>
+      <c r="AL165" s="6"/>
+      <c r="AM165" s="6"/>
+    </row>
+    <row r="166"/>
+    <row r="167">
+      <c r="B167" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="J167" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K167" s="14"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="964">
+  <mergeCells count="1172">
     <mergeCell ref="B1:AI1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:AI2"/>
@@ -9830,15 +11444,223 @@
     <mergeCell ref="AB131:AE131"/>
     <mergeCell ref="AF131:AI131"/>
     <mergeCell ref="AJ131:AM131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="H132:T132"/>
+    <mergeCell ref="W132:Y132"/>
+    <mergeCell ref="Z132:AA132"/>
+    <mergeCell ref="AB132:AE132"/>
+    <mergeCell ref="AF132:AI132"/>
+    <mergeCell ref="AJ132:AM132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="H133:T133"/>
+    <mergeCell ref="W133:Y133"/>
+    <mergeCell ref="Z133:AA133"/>
     <mergeCell ref="AB133:AE133"/>
+    <mergeCell ref="AF133:AI133"/>
+    <mergeCell ref="AJ133:AM133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="H134:T134"/>
+    <mergeCell ref="W134:Y134"/>
+    <mergeCell ref="Z134:AA134"/>
     <mergeCell ref="AB134:AE134"/>
-    <mergeCell ref="AF133:AI133"/>
     <mergeCell ref="AF134:AI134"/>
-    <mergeCell ref="B136:AI136"/>
-    <mergeCell ref="B137:AI137"/>
-    <mergeCell ref="B138:AH138"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="J141:P141"/>
+    <mergeCell ref="AJ134:AM134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="H135:T135"/>
+    <mergeCell ref="W135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="AB135:AE135"/>
+    <mergeCell ref="AF135:AI135"/>
+    <mergeCell ref="AJ135:AM135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="H136:T136"/>
+    <mergeCell ref="W136:Y136"/>
+    <mergeCell ref="Z136:AA136"/>
+    <mergeCell ref="AB136:AE136"/>
+    <mergeCell ref="AF136:AI136"/>
+    <mergeCell ref="AJ136:AM136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="H137:T137"/>
+    <mergeCell ref="W137:Y137"/>
+    <mergeCell ref="Z137:AA137"/>
+    <mergeCell ref="AB137:AE137"/>
+    <mergeCell ref="AF137:AI137"/>
+    <mergeCell ref="AJ137:AM137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="H138:T138"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="Z138:AA138"/>
+    <mergeCell ref="AB138:AE138"/>
+    <mergeCell ref="AF138:AI138"/>
+    <mergeCell ref="AJ138:AM138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="H139:T139"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="Z139:AA139"/>
+    <mergeCell ref="AB139:AE139"/>
+    <mergeCell ref="AF139:AI139"/>
+    <mergeCell ref="AJ139:AM139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="H140:T140"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="Z140:AA140"/>
+    <mergeCell ref="AB140:AE140"/>
+    <mergeCell ref="AF140:AI140"/>
+    <mergeCell ref="AJ140:AM140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="H141:T141"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="Z141:AA141"/>
+    <mergeCell ref="AB141:AE141"/>
+    <mergeCell ref="AF141:AI141"/>
+    <mergeCell ref="AJ141:AM141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="H142:T142"/>
+    <mergeCell ref="W142:Y142"/>
+    <mergeCell ref="Z142:AA142"/>
+    <mergeCell ref="AB142:AE142"/>
+    <mergeCell ref="AF142:AI142"/>
+    <mergeCell ref="AJ142:AM142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="H143:T143"/>
+    <mergeCell ref="W143:Y143"/>
+    <mergeCell ref="Z143:AA143"/>
+    <mergeCell ref="AB143:AE143"/>
+    <mergeCell ref="AF143:AI143"/>
+    <mergeCell ref="AJ143:AM143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:T144"/>
+    <mergeCell ref="W144:Y144"/>
+    <mergeCell ref="Z144:AA144"/>
+    <mergeCell ref="AB144:AE144"/>
+    <mergeCell ref="AF144:AI144"/>
+    <mergeCell ref="AJ144:AM144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="H145:T145"/>
+    <mergeCell ref="W145:Y145"/>
+    <mergeCell ref="Z145:AA145"/>
+    <mergeCell ref="AB145:AE145"/>
+    <mergeCell ref="AF145:AI145"/>
+    <mergeCell ref="AJ145:AM145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="H146:T146"/>
+    <mergeCell ref="W146:Y146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AE146"/>
+    <mergeCell ref="AF146:AI146"/>
+    <mergeCell ref="AJ146:AM146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="H147:T147"/>
+    <mergeCell ref="W147:Y147"/>
+    <mergeCell ref="Z147:AA147"/>
+    <mergeCell ref="AB147:AE147"/>
+    <mergeCell ref="AF147:AI147"/>
+    <mergeCell ref="AJ147:AM147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="H148:T148"/>
+    <mergeCell ref="W148:Y148"/>
+    <mergeCell ref="Z148:AA148"/>
+    <mergeCell ref="AB148:AE148"/>
+    <mergeCell ref="AF148:AI148"/>
+    <mergeCell ref="AJ148:AM148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="H149:T149"/>
+    <mergeCell ref="W149:Y149"/>
+    <mergeCell ref="Z149:AA149"/>
+    <mergeCell ref="AB149:AE149"/>
+    <mergeCell ref="AF149:AI149"/>
+    <mergeCell ref="AJ149:AM149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:G150"/>
+    <mergeCell ref="H150:T150"/>
+    <mergeCell ref="W150:Y150"/>
+    <mergeCell ref="Z150:AA150"/>
+    <mergeCell ref="AB150:AE150"/>
+    <mergeCell ref="AF150:AI150"/>
+    <mergeCell ref="AJ150:AM150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="H151:T151"/>
+    <mergeCell ref="W151:Y151"/>
+    <mergeCell ref="Z151:AA151"/>
+    <mergeCell ref="AB151:AE151"/>
+    <mergeCell ref="AF151:AI151"/>
+    <mergeCell ref="AJ151:AM151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="H152:T152"/>
+    <mergeCell ref="W152:Y152"/>
+    <mergeCell ref="Z152:AA152"/>
+    <mergeCell ref="AB152:AE152"/>
+    <mergeCell ref="AF152:AI152"/>
+    <mergeCell ref="AJ152:AM152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="H153:T153"/>
+    <mergeCell ref="W153:Y153"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AE153"/>
+    <mergeCell ref="AF153:AI153"/>
+    <mergeCell ref="AJ153:AM153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="H154:T154"/>
+    <mergeCell ref="W154:Y154"/>
+    <mergeCell ref="Z154:AA154"/>
+    <mergeCell ref="AB154:AE154"/>
+    <mergeCell ref="AF154:AI154"/>
+    <mergeCell ref="AJ154:AM154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:G155"/>
+    <mergeCell ref="H155:T155"/>
+    <mergeCell ref="W155:Y155"/>
+    <mergeCell ref="Z155:AA155"/>
+    <mergeCell ref="AB155:AE155"/>
+    <mergeCell ref="AF155:AI155"/>
+    <mergeCell ref="AJ155:AM155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="H156:T156"/>
+    <mergeCell ref="W156:Y156"/>
+    <mergeCell ref="Z156:AA156"/>
+    <mergeCell ref="AB156:AE156"/>
+    <mergeCell ref="AF156:AI156"/>
+    <mergeCell ref="AJ156:AM156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="H157:T157"/>
+    <mergeCell ref="W157:Y157"/>
+    <mergeCell ref="Z157:AA157"/>
+    <mergeCell ref="AB157:AE157"/>
+    <mergeCell ref="AF157:AI157"/>
+    <mergeCell ref="AJ157:AM157"/>
+    <mergeCell ref="AB159:AE159"/>
+    <mergeCell ref="AB160:AE160"/>
+    <mergeCell ref="AF159:AI159"/>
+    <mergeCell ref="AF160:AI160"/>
+    <mergeCell ref="B162:AI162"/>
+    <mergeCell ref="B163:AI163"/>
+    <mergeCell ref="B164:AH164"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="J167:P167"/>
   </mergeCells>
 </worksheet>
 </file>